--- a/EXTRAS/Descripcion columnas reportes.xlsx
+++ b/EXTRAS/Descripcion columnas reportes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5366" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="380">
   <si>
     <t>GENERACION DE LA ORDEN</t>
   </si>
@@ -1182,6 +1182,9 @@
   </si>
   <si>
     <t>&lt;td class="text-right"&gt;${rep.</t>
+  </si>
+  <si>
+    <t>Recuperacion de Trib ORDEN</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1397,11 +1400,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1496,6 +1510,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,6 +1562,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1827,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS115"/>
+  <dimension ref="A1:AX115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W46" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3:AO115"/>
+    <sheetView tabSelected="1" topLeftCell="AH10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AV40" sqref="AV40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,62 +1877,79 @@
     <col min="12" max="15" width="17.5703125" style="13" customWidth="1"/>
     <col min="16" max="16" width="39.7109375" style="14" customWidth="1"/>
     <col min="17" max="17" width="42" style="27" customWidth="1"/>
-    <col min="18" max="21" width="17.5703125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="13" customWidth="1"/>
+    <col min="19" max="19" width="23.7109375" style="13" customWidth="1"/>
+    <col min="20" max="21" width="17.5703125" style="13" customWidth="1"/>
     <col min="22" max="22" width="39.7109375" style="14" customWidth="1"/>
     <col min="23" max="23" width="42" style="27" customWidth="1"/>
-    <col min="24" max="27" width="17.5703125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" style="13" customWidth="1"/>
+    <col min="25" max="25" width="28.85546875" style="13" customWidth="1"/>
+    <col min="26" max="26" width="29.85546875" style="13" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" style="13" customWidth="1"/>
     <col min="28" max="28" width="39.7109375" style="14" customWidth="1"/>
     <col min="29" max="29" width="42" style="27" customWidth="1"/>
-    <col min="30" max="33" width="17.5703125" style="13" customWidth="1"/>
+    <col min="30" max="30" width="17.5703125" style="13" customWidth="1"/>
+    <col min="31" max="31" width="35.5703125" style="13" customWidth="1"/>
+    <col min="32" max="33" width="17.5703125" style="13" customWidth="1"/>
     <col min="34" max="34" width="39.7109375" style="14" customWidth="1"/>
     <col min="35" max="35" width="42" style="27" customWidth="1"/>
     <col min="36" max="39" width="17.5703125" style="13" customWidth="1"/>
     <col min="40" max="40" width="39.7109375" style="14" customWidth="1"/>
     <col min="41" max="41" width="42" style="27" customWidth="1"/>
     <col min="42" max="42" width="17.5703125" style="13" customWidth="1"/>
-    <col min="43" max="43" width="19.140625" style="13" customWidth="1"/>
+    <col min="43" max="43" width="33.28515625" style="13" customWidth="1"/>
     <col min="44" max="44" width="17.5703125" style="13" customWidth="1"/>
-    <col min="45" max="45" width="5.42578125" style="13" customWidth="1"/>
-    <col min="46" max="16384" width="11.42578125" style="25"/>
+    <col min="45" max="45" width="17.42578125" style="13" customWidth="1"/>
+    <col min="46" max="46" width="39.7109375" style="14" customWidth="1"/>
+    <col min="47" max="47" width="42" style="32" customWidth="1"/>
+    <col min="48" max="48" width="17.5703125" style="32" customWidth="1"/>
+    <col min="49" max="49" width="33.28515625" style="32" customWidth="1"/>
+    <col min="50" max="50" width="17.5703125" style="32" customWidth="1"/>
+    <col min="51" max="16384" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="26" t="s">
         <v>141</v>
       </c>
       <c r="F1" s="26"/>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="R1" s="26" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="R1" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="X1" s="44" t="s">
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="X1" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AD1" s="44" t="s">
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AD1" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AJ1" s="44" t="s">
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AJ1" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AP1" s="44" t="s">
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AP1" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AV1" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+    </row>
+    <row r="3" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>275</v>
       </c>
@@ -1913,7 +1959,7 @@
       <c r="C3" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1928,7 +1974,7 @@
       <c r="K3" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1944,7 +1990,7 @@
       <c r="Q3" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -1960,7 +2006,7 @@
       <c r="W3" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="Y3" s="1" t="s">
@@ -1976,7 +2022,7 @@
       <c r="AC3" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="AD3" s="32" t="s">
+      <c r="AD3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="AE3" s="1" t="s">
@@ -1992,7 +2038,7 @@
       <c r="AI3" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="AJ3" s="32" t="s">
+      <c r="AJ3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="AK3" s="1" t="s">
@@ -2008,7 +2054,7 @@
       <c r="AO3" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="AP3" s="32" t="s">
+      <c r="AP3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="AQ3" s="1" t="s">
@@ -2017,8 +2063,23 @@
       <c r="AR3" s="2">
         <v>2017</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT3" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU3" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="AV3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>275</v>
       </c>
@@ -2028,7 +2089,7 @@
       <c r="C4" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2102,7 @@
       <c r="K4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="33"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2055,7 +2116,7 @@
       <c r="Q4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="33"/>
+      <c r="R4" s="34"/>
       <c r="S4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2069,7 +2130,7 @@
       <c r="W4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="33"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2083,7 +2144,7 @@
       <c r="AC4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="33"/>
+      <c r="AD4" s="34"/>
       <c r="AE4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2097,7 +2158,7 @@
       <c r="AI4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AJ4" s="33"/>
+      <c r="AJ4" s="34"/>
       <c r="AK4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2111,15 +2172,28 @@
       <c r="AO4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="33"/>
+      <c r="AP4" s="34"/>
       <c r="AQ4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AR4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>275</v>
       </c>
@@ -2129,7 +2203,7 @@
       <c r="C5" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2142,7 +2216,7 @@
       <c r="K5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="33"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2230,7 @@
       <c r="Q5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="33"/>
+      <c r="R5" s="34"/>
       <c r="S5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2244,7 @@
       <c r="W5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="33"/>
+      <c r="X5" s="34"/>
       <c r="Y5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2184,7 +2258,7 @@
       <c r="AC5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AD5" s="33"/>
+      <c r="AD5" s="34"/>
       <c r="AE5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +2272,7 @@
       <c r="AI5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AJ5" s="33"/>
+      <c r="AJ5" s="34"/>
       <c r="AK5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2212,15 +2286,28 @@
       <c r="AO5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AP5" s="33"/>
+      <c r="AP5" s="34"/>
       <c r="AQ5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AR5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT5" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>275</v>
       </c>
@@ -2230,7 +2317,7 @@
       <c r="C6" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2243,7 +2330,7 @@
       <c r="K6" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="L6" s="33"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2344,7 @@
       <c r="Q6" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="R6" s="33"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2358,7 @@
       <c r="W6" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="X6" s="33"/>
+      <c r="X6" s="34"/>
       <c r="Y6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2372,7 @@
       <c r="AC6" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="AD6" s="33"/>
+      <c r="AD6" s="34"/>
       <c r="AE6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2299,7 +2386,7 @@
       <c r="AI6" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="AJ6" s="33"/>
+      <c r="AJ6" s="34"/>
       <c r="AK6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2313,15 +2400,28 @@
       <c r="AO6" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="AP6" s="33"/>
+      <c r="AP6" s="34"/>
       <c r="AQ6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AR6" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT6" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU6" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>275</v>
       </c>
@@ -2331,7 +2431,7 @@
       <c r="C7" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2344,7 +2444,7 @@
       <c r="K7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2458,7 @@
       <c r="Q7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="33"/>
+      <c r="R7" s="34"/>
       <c r="S7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +2472,7 @@
       <c r="W7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="33"/>
+      <c r="X7" s="34"/>
       <c r="Y7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2386,7 +2486,7 @@
       <c r="AC7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="33"/>
+      <c r="AD7" s="34"/>
       <c r="AE7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2500,7 @@
       <c r="AI7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AJ7" s="33"/>
+      <c r="AJ7" s="34"/>
       <c r="AK7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2414,15 +2514,28 @@
       <c r="AO7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AP7" s="33"/>
+      <c r="AP7" s="34"/>
       <c r="AQ7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AR7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>275</v>
       </c>
@@ -2432,7 +2545,7 @@
       <c r="C8" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2445,7 +2558,7 @@
       <c r="K8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2459,7 +2572,7 @@
       <c r="Q8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="33"/>
+      <c r="R8" s="34"/>
       <c r="S8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2473,7 +2586,7 @@
       <c r="W8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="33"/>
+      <c r="X8" s="34"/>
       <c r="Y8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2600,7 @@
       <c r="AC8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="33"/>
+      <c r="AD8" s="34"/>
       <c r="AE8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2614,7 @@
       <c r="AI8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AJ8" s="33"/>
+      <c r="AJ8" s="34"/>
       <c r="AK8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2515,15 +2628,28 @@
       <c r="AO8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AP8" s="33"/>
+      <c r="AP8" s="34"/>
       <c r="AQ8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AR8" s="3">
         <v>42313</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT8" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>275</v>
       </c>
@@ -2533,7 +2659,7 @@
       <c r="C9" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2546,7 +2672,7 @@
       <c r="K9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2686,7 @@
       <c r="Q9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="33"/>
+      <c r="R9" s="34"/>
       <c r="S9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2700,7 @@
       <c r="W9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="33"/>
+      <c r="X9" s="34"/>
       <c r="Y9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2588,8 +2714,21 @@
       <c r="AC9" s="28"/>
       <c r="AI9" s="28"/>
       <c r="AO9" s="28"/>
-    </row>
-    <row r="10" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT9" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>275</v>
       </c>
@@ -2599,7 +2738,7 @@
       <c r="C10" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2612,7 +2751,7 @@
       <c r="K10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2626,7 +2765,7 @@
       <c r="Q10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="33"/>
+      <c r="R10" s="34"/>
       <c r="S10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2779,7 @@
       <c r="W10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="33"/>
+      <c r="X10" s="34"/>
       <c r="Y10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2654,8 +2793,21 @@
       <c r="AC10" s="28"/>
       <c r="AI10" s="28"/>
       <c r="AO10" s="28"/>
-    </row>
-    <row r="11" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT10" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>275</v>
       </c>
@@ -2665,7 +2817,7 @@
       <c r="C11" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2678,7 +2830,7 @@
       <c r="K11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2692,7 +2844,7 @@
       <c r="Q11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R11" s="33"/>
+      <c r="R11" s="34"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2706,7 +2858,7 @@
       <c r="W11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="X11" s="33"/>
+      <c r="X11" s="34"/>
       <c r="Y11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2720,8 +2872,21 @@
       <c r="AC11" s="28"/>
       <c r="AI11" s="28"/>
       <c r="AO11" s="28"/>
-    </row>
-    <row r="12" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU11" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>275</v>
       </c>
@@ -2731,7 +2896,7 @@
       <c r="C12" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2744,7 +2909,7 @@
       <c r="K12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="33"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2923,7 @@
       <c r="Q12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="33"/>
+      <c r="R12" s="34"/>
       <c r="S12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2772,7 +2937,7 @@
       <c r="W12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="33"/>
+      <c r="X12" s="34"/>
       <c r="Y12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2786,8 +2951,21 @@
       <c r="AC12" s="28"/>
       <c r="AI12" s="28"/>
       <c r="AO12" s="28"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT12" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>275</v>
       </c>
@@ -2797,7 +2975,7 @@
       <c r="C13" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2810,7 +2988,7 @@
       <c r="K13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2824,7 +3002,7 @@
       <c r="Q13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="33"/>
+      <c r="R13" s="34"/>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2838,7 +3016,7 @@
       <c r="W13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="X13" s="33"/>
+      <c r="X13" s="34"/>
       <c r="Y13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2852,8 +3030,21 @@
       <c r="AC13" s="28"/>
       <c r="AI13" s="28"/>
       <c r="AO13" s="28"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV13" s="34"/>
+      <c r="AW13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>275</v>
       </c>
@@ -2863,7 +3054,7 @@
       <c r="C14" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2876,7 +3067,7 @@
       <c r="K14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2890,7 +3081,7 @@
       <c r="Q14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="33"/>
+      <c r="R14" s="34"/>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2904,7 +3095,7 @@
       <c r="W14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="33"/>
+      <c r="X14" s="34"/>
       <c r="Y14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2918,8 +3109,21 @@
       <c r="AC14" s="28"/>
       <c r="AI14" s="28"/>
       <c r="AO14" s="28"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT14" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV14" s="34"/>
+      <c r="AW14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>275</v>
       </c>
@@ -2929,7 +3133,7 @@
       <c r="C15" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2942,7 +3146,7 @@
       <c r="K15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2956,7 +3160,7 @@
       <c r="Q15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="33"/>
+      <c r="R15" s="34"/>
       <c r="S15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2970,7 +3174,7 @@
       <c r="W15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="33"/>
+      <c r="X15" s="34"/>
       <c r="Y15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2984,8 +3188,21 @@
       <c r="AC15" s="28"/>
       <c r="AI15" s="28"/>
       <c r="AO15" s="28"/>
-    </row>
-    <row r="16" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="AT15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>275</v>
       </c>
@@ -2995,7 +3212,7 @@
       <c r="C16" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E16" s="33"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="1" t="s">
         <v>66</v>
       </c>
@@ -3009,7 +3226,7 @@
       <c r="Q16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="R16" s="33"/>
+      <c r="R16" s="34"/>
       <c r="S16" s="1" t="s">
         <v>66</v>
       </c>
@@ -3023,7 +3240,7 @@
       <c r="W16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="X16" s="33"/>
+      <c r="X16" s="34"/>
       <c r="Y16" s="1" t="s">
         <v>66</v>
       </c>
@@ -3037,8 +3254,9 @@
       <c r="AC16" s="28"/>
       <c r="AI16" s="28"/>
       <c r="AO16" s="28"/>
-    </row>
-    <row r="17" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AU16" s="28"/>
+    </row>
+    <row r="17" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>275</v>
       </c>
@@ -3048,7 +3266,7 @@
       <c r="C17" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E17" s="33"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
@@ -3062,7 +3280,7 @@
       <c r="Q17" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="33"/>
+      <c r="R17" s="34"/>
       <c r="S17" s="1" t="s">
         <v>68</v>
       </c>
@@ -3076,7 +3294,7 @@
       <c r="W17" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="X17" s="33"/>
+      <c r="X17" s="34"/>
       <c r="Y17" s="1" t="s">
         <v>68</v>
       </c>
@@ -3090,8 +3308,9 @@
       <c r="AC17" s="28"/>
       <c r="AI17" s="28"/>
       <c r="AO17" s="28"/>
-    </row>
-    <row r="18" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AU17" s="28"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>275</v>
       </c>
@@ -3101,7 +3320,7 @@
       <c r="C18" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="1" t="s">
         <v>69</v>
       </c>
@@ -3115,7 +3334,7 @@
       <c r="Q18" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="R18" s="33"/>
+      <c r="R18" s="34"/>
       <c r="S18" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,7 +3348,7 @@
       <c r="W18" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="X18" s="33"/>
+      <c r="X18" s="34"/>
       <c r="Y18" s="1" t="s">
         <v>69</v>
       </c>
@@ -3143,8 +3362,9 @@
       <c r="AC18" s="28"/>
       <c r="AI18" s="28"/>
       <c r="AO18" s="28"/>
-    </row>
-    <row r="19" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AU18" s="28"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>275</v>
       </c>
@@ -3154,7 +3374,7 @@
       <c r="C19" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="1" t="s">
         <v>70</v>
       </c>
@@ -3168,7 +3388,7 @@
       <c r="Q19" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R19" s="34"/>
+      <c r="R19" s="35"/>
       <c r="S19" s="1" t="s">
         <v>70</v>
       </c>
@@ -3182,7 +3402,7 @@
       <c r="W19" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="X19" s="34"/>
+      <c r="X19" s="35"/>
       <c r="Y19" s="1" t="s">
         <v>70</v>
       </c>
@@ -3196,8 +3416,9 @@
       <c r="AC19" s="28"/>
       <c r="AI19" s="28"/>
       <c r="AO19" s="28"/>
-    </row>
-    <row r="20" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AU19" s="28"/>
+    </row>
+    <row r="20" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>275</v>
       </c>
@@ -3207,7 +3428,7 @@
       <c r="C20" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="33" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3222,7 +3443,7 @@
       <c r="K20" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -3236,7 +3457,7 @@
       <c r="Q20" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="R20" s="32" t="s">
+      <c r="R20" s="33" t="s">
         <v>24</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -3250,7 +3471,7 @@
       <c r="W20" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="X20" s="32" t="s">
+      <c r="X20" s="33" t="s">
         <v>24</v>
       </c>
       <c r="Y20" s="1" t="s">
@@ -3264,8 +3485,21 @@
       <c r="AC20" s="28"/>
       <c r="AI20" s="28"/>
       <c r="AO20" s="28"/>
-    </row>
-    <row r="21" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT20" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU20" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX20" s="4"/>
+    </row>
+    <row r="21" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>275</v>
       </c>
@@ -3275,7 +3509,7 @@
       <c r="C21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="1" t="s">
         <v>26</v>
       </c>
@@ -3288,7 +3522,7 @@
       <c r="K21" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="1" t="s">
         <v>26</v>
       </c>
@@ -3300,7 +3534,7 @@
       <c r="Q21" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="R21" s="33"/>
+      <c r="R21" s="34"/>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
@@ -3312,7 +3546,7 @@
       <c r="W21" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="X21" s="33"/>
+      <c r="X21" s="34"/>
       <c r="Y21" s="1" t="s">
         <v>26</v>
       </c>
@@ -3324,8 +3558,19 @@
       <c r="AC21" s="28"/>
       <c r="AI21" s="28"/>
       <c r="AO21" s="28"/>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT21" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU21" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="AV21" s="34"/>
+      <c r="AW21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX21" s="4"/>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>275</v>
       </c>
@@ -3335,7 +3580,7 @@
       <c r="C22" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3348,7 +3593,7 @@
       <c r="K22" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="L22" s="33"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3362,7 +3607,7 @@
       <c r="Q22" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="R22" s="33"/>
+      <c r="R22" s="34"/>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3376,7 +3621,7 @@
       <c r="W22" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="X22" s="33"/>
+      <c r="X22" s="34"/>
       <c r="Y22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3390,8 +3635,21 @@
       <c r="AC22" s="28"/>
       <c r="AI22" s="28"/>
       <c r="AO22" s="28"/>
-    </row>
-    <row r="23" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT22" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU22" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="AV22" s="34"/>
+      <c r="AW22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>275</v>
       </c>
@@ -3401,7 +3659,7 @@
       <c r="C23" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3414,7 +3672,7 @@
       <c r="K23" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="L23" s="34"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3428,7 +3686,7 @@
       <c r="Q23" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="R23" s="34"/>
+      <c r="R23" s="35"/>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3442,7 +3700,7 @@
       <c r="W23" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="X23" s="34"/>
+      <c r="X23" s="35"/>
       <c r="Y23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3456,8 +3714,21 @@
       <c r="AC23" s="28"/>
       <c r="AI23" s="28"/>
       <c r="AO23" s="28"/>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU23" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>275</v>
       </c>
@@ -3467,7 +3738,7 @@
       <c r="C24" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="39" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3483,7 +3754,7 @@
       <c r="Q24" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="R24" s="38" t="s">
+      <c r="R24" s="39" t="s">
         <v>72</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -3499,7 +3770,7 @@
       <c r="W24" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="X24" s="46" t="s">
+      <c r="X24" s="47" t="s">
         <v>72</v>
       </c>
       <c r="Y24" s="1" t="s">
@@ -3515,7 +3786,7 @@
       <c r="AC24" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="AD24" s="42" t="s">
+      <c r="AD24" s="43" t="s">
         <v>72</v>
       </c>
       <c r="AE24" s="1" t="s">
@@ -3531,7 +3802,7 @@
       <c r="AI24" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="AJ24" s="42" t="s">
+      <c r="AJ24" s="43" t="s">
         <v>72</v>
       </c>
       <c r="AK24" s="1" t="s">
@@ -3547,7 +3818,7 @@
       <c r="AO24" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="AP24" s="42" t="s">
+      <c r="AP24" s="43" t="s">
         <v>72</v>
       </c>
       <c r="AQ24" s="1" t="s">
@@ -3556,8 +3827,11 @@
       <c r="AR24" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT24" s="50"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="16"/>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>275</v>
       </c>
@@ -3567,7 +3841,7 @@
       <c r="C25" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="1" t="s">
         <v>75</v>
       </c>
@@ -3581,7 +3855,7 @@
       <c r="Q25" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="R25" s="42"/>
+      <c r="R25" s="43"/>
       <c r="S25" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,7 +3869,7 @@
       <c r="W25" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="X25" s="47"/>
+      <c r="X25" s="48"/>
       <c r="Y25" s="1" t="s">
         <v>75</v>
       </c>
@@ -3609,7 +3883,7 @@
       <c r="AC25" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="AD25" s="42"/>
+      <c r="AD25" s="43"/>
       <c r="AE25" s="1" t="s">
         <v>75</v>
       </c>
@@ -3623,7 +3897,7 @@
       <c r="AI25" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="AJ25" s="42"/>
+      <c r="AJ25" s="43"/>
       <c r="AK25" s="1" t="s">
         <v>75</v>
       </c>
@@ -3637,15 +3911,18 @@
       <c r="AO25" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="AP25" s="42"/>
+      <c r="AP25" s="43"/>
       <c r="AQ25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AR25" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT25" s="50"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="16"/>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>275</v>
       </c>
@@ -3655,7 +3932,7 @@
       <c r="C26" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3669,7 +3946,7 @@
       <c r="Q26" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="R26" s="42"/>
+      <c r="R26" s="43"/>
       <c r="S26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3683,7 +3960,7 @@
       <c r="W26" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="X26" s="47"/>
+      <c r="X26" s="48"/>
       <c r="Y26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3697,7 +3974,7 @@
       <c r="AC26" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="AD26" s="42"/>
+      <c r="AD26" s="43"/>
       <c r="AE26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3711,7 +3988,7 @@
       <c r="AI26" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="AJ26" s="42"/>
+      <c r="AJ26" s="43"/>
       <c r="AK26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3725,15 +4002,18 @@
       <c r="AO26" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="AP26" s="42"/>
+      <c r="AP26" s="43"/>
       <c r="AQ26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AR26" s="5">
         <v>42304</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT26" s="50"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="19"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>275</v>
       </c>
@@ -3743,7 +4023,7 @@
       <c r="C27" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="1" t="s">
         <v>115</v>
       </c>
@@ -3752,34 +4032,37 @@
       </c>
       <c r="K27" s="28"/>
       <c r="Q27" s="28"/>
-      <c r="R27" s="42"/>
+      <c r="R27" s="43"/>
       <c r="V27" s="14" t="s">
         <v>185</v>
       </c>
       <c r="W27" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="X27" s="47"/>
+      <c r="X27" s="48"/>
       <c r="Y27" s="1" t="s">
         <v>115</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="19"/>
       <c r="AC27" s="28"/>
-      <c r="AD27" s="42"/>
+      <c r="AD27" s="43"/>
       <c r="AI27" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="AJ27" s="42"/>
+      <c r="AJ27" s="43"/>
       <c r="AK27" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AL27" s="5"/>
       <c r="AM27" s="19"/>
       <c r="AO27" s="28"/>
-      <c r="AP27" s="42"/>
-    </row>
-    <row r="28" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AP27" s="43"/>
+      <c r="AT27" s="50"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+    </row>
+    <row r="28" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>275</v>
       </c>
@@ -3789,7 +4072,7 @@
       <c r="C28" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="1" t="s">
         <v>116</v>
       </c>
@@ -3798,34 +4081,37 @@
       </c>
       <c r="K28" s="28"/>
       <c r="Q28" s="28"/>
-      <c r="R28" s="42"/>
+      <c r="R28" s="43"/>
       <c r="V28" s="14" t="s">
         <v>186</v>
       </c>
       <c r="W28" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="X28" s="47"/>
+      <c r="X28" s="48"/>
       <c r="Y28" s="1" t="s">
         <v>116</v>
       </c>
       <c r="Z28" s="5"/>
       <c r="AA28" s="19"/>
       <c r="AC28" s="28"/>
-      <c r="AD28" s="42"/>
+      <c r="AD28" s="43"/>
       <c r="AI28" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="AJ28" s="42"/>
+      <c r="AJ28" s="43"/>
       <c r="AK28" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AL28" s="5"/>
       <c r="AM28" s="19"/>
       <c r="AO28" s="28"/>
-      <c r="AP28" s="42"/>
-    </row>
-    <row r="29" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AP28" s="43"/>
+      <c r="AT28" s="50"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+    </row>
+    <row r="29" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>275</v>
       </c>
@@ -3835,7 +4121,7 @@
       <c r="C29" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="1" t="s">
         <v>117</v>
       </c>
@@ -3844,34 +4130,37 @@
       </c>
       <c r="K29" s="28"/>
       <c r="Q29" s="28"/>
-      <c r="R29" s="42"/>
+      <c r="R29" s="43"/>
       <c r="V29" s="14" t="s">
         <v>187</v>
       </c>
       <c r="W29" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="X29" s="47"/>
+      <c r="X29" s="48"/>
       <c r="Y29" s="1" t="s">
         <v>117</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="19"/>
       <c r="AC29" s="28"/>
-      <c r="AD29" s="42"/>
+      <c r="AD29" s="43"/>
       <c r="AI29" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="AJ29" s="42"/>
+      <c r="AJ29" s="43"/>
       <c r="AK29" s="1" t="s">
         <v>117</v>
       </c>
       <c r="AL29" s="5"/>
       <c r="AM29" s="19"/>
       <c r="AO29" s="28"/>
-      <c r="AP29" s="42"/>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AP29" s="43"/>
+      <c r="AT29" s="50"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>275</v>
       </c>
@@ -3881,7 +4170,7 @@
       <c r="C30" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="1" t="s">
         <v>78</v>
       </c>
@@ -3895,7 +4184,7 @@
       <c r="Q30" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="R30" s="42"/>
+      <c r="R30" s="43"/>
       <c r="S30" s="1" t="s">
         <v>78</v>
       </c>
@@ -3909,7 +4198,7 @@
       <c r="W30" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="X30" s="47"/>
+      <c r="X30" s="48"/>
       <c r="Y30" s="1" t="s">
         <v>78</v>
       </c>
@@ -3923,7 +4212,7 @@
       <c r="AC30" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="AD30" s="42"/>
+      <c r="AD30" s="43"/>
       <c r="AE30" s="1" t="s">
         <v>78</v>
       </c>
@@ -3937,7 +4226,7 @@
       <c r="AI30" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="AJ30" s="42"/>
+      <c r="AJ30" s="43"/>
       <c r="AK30" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,15 +4240,18 @@
       <c r="AO30" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="AP30" s="42"/>
+      <c r="AP30" s="43"/>
       <c r="AQ30" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AR30" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT30" s="50"/>
+      <c r="AW30" s="51"/>
+      <c r="AX30" s="16"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>275</v>
       </c>
@@ -3969,7 +4261,7 @@
       <c r="C31" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="1" t="s">
         <v>80</v>
       </c>
@@ -3983,7 +4275,7 @@
       <c r="Q31" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="R31" s="42"/>
+      <c r="R31" s="43"/>
       <c r="S31" s="1" t="s">
         <v>80</v>
       </c>
@@ -3997,7 +4289,7 @@
       <c r="W31" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="X31" s="47"/>
+      <c r="X31" s="48"/>
       <c r="Y31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4011,7 +4303,7 @@
       <c r="AC31" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AD31" s="42"/>
+      <c r="AD31" s="43"/>
       <c r="AE31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4025,7 +4317,7 @@
       <c r="AI31" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AJ31" s="42"/>
+      <c r="AJ31" s="43"/>
       <c r="AK31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,15 +4331,18 @@
       <c r="AO31" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AP31" s="42"/>
+      <c r="AP31" s="43"/>
       <c r="AQ31" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AR31" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="AT31" s="50"/>
+      <c r="AW31" s="51"/>
+      <c r="AX31" s="16"/>
+    </row>
+    <row r="32" spans="1:50" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>275</v>
       </c>
@@ -4057,7 +4352,7 @@
       <c r="C32" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="1" t="s">
         <v>82</v>
       </c>
@@ -4071,7 +4366,7 @@
       <c r="Q32" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="R32" s="42"/>
+      <c r="R32" s="43"/>
       <c r="S32" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,7 +4380,7 @@
       <c r="W32" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="X32" s="47"/>
+      <c r="X32" s="48"/>
       <c r="Y32" s="1" t="s">
         <v>82</v>
       </c>
@@ -4099,7 +4394,7 @@
       <c r="AC32" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="AD32" s="42"/>
+      <c r="AD32" s="43"/>
       <c r="AE32" s="1" t="s">
         <v>82</v>
       </c>
@@ -4113,7 +4408,7 @@
       <c r="AI32" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="AJ32" s="42"/>
+      <c r="AJ32" s="43"/>
       <c r="AK32" s="1" t="s">
         <v>82</v>
       </c>
@@ -4127,15 +4422,18 @@
       <c r="AO32" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="AP32" s="42"/>
+      <c r="AP32" s="43"/>
       <c r="AQ32" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AR32" s="5">
         <v>42306</v>
       </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT32" s="50"/>
+      <c r="AW32" s="51"/>
+      <c r="AX32" s="19"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>275</v>
       </c>
@@ -4145,7 +4443,7 @@
       <c r="C33" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="1" t="s">
         <v>83</v>
       </c>
@@ -4159,7 +4457,7 @@
       <c r="Q33" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="R33" s="42"/>
+      <c r="R33" s="43"/>
       <c r="S33" s="1" t="s">
         <v>83</v>
       </c>
@@ -4173,7 +4471,7 @@
       <c r="W33" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="X33" s="47"/>
+      <c r="X33" s="48"/>
       <c r="Y33" s="1" t="s">
         <v>83</v>
       </c>
@@ -4187,7 +4485,7 @@
       <c r="AC33" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="AD33" s="42"/>
+      <c r="AD33" s="43"/>
       <c r="AE33" s="1" t="s">
         <v>83</v>
       </c>
@@ -4201,7 +4499,7 @@
       <c r="AI33" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="AJ33" s="42"/>
+      <c r="AJ33" s="43"/>
       <c r="AK33" s="1" t="s">
         <v>83</v>
       </c>
@@ -4215,15 +4513,18 @@
       <c r="AO33" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="AP33" s="42"/>
+      <c r="AP33" s="43"/>
       <c r="AQ33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AR33" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT33" s="50"/>
+      <c r="AW33" s="51"/>
+      <c r="AX33" s="16"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>275</v>
       </c>
@@ -4233,7 +4534,7 @@
       <c r="C34" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="1" t="s">
         <v>14</v>
       </c>
@@ -4247,7 +4548,7 @@
       <c r="Q34" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="R34" s="42"/>
+      <c r="R34" s="43"/>
       <c r="S34" s="1" t="s">
         <v>14</v>
       </c>
@@ -4261,7 +4562,7 @@
       <c r="W34" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="X34" s="47"/>
+      <c r="X34" s="48"/>
       <c r="Y34" s="1" t="s">
         <v>14</v>
       </c>
@@ -4275,7 +4576,7 @@
       <c r="AC34" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="AD34" s="42"/>
+      <c r="AD34" s="43"/>
       <c r="AE34" s="1" t="s">
         <v>14</v>
       </c>
@@ -4289,7 +4590,7 @@
       <c r="AI34" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="AJ34" s="42"/>
+      <c r="AJ34" s="43"/>
       <c r="AK34" s="1" t="s">
         <v>14</v>
       </c>
@@ -4303,15 +4604,18 @@
       <c r="AO34" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="AP34" s="42"/>
+      <c r="AP34" s="43"/>
       <c r="AQ34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AR34" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT34" s="50"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="16"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>275</v>
       </c>
@@ -4321,7 +4625,7 @@
       <c r="C35" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="1" t="s">
         <v>86</v>
       </c>
@@ -4335,7 +4639,7 @@
       <c r="Q35" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="R35" s="42"/>
+      <c r="R35" s="43"/>
       <c r="S35" s="1" t="s">
         <v>86</v>
       </c>
@@ -4349,7 +4653,7 @@
       <c r="W35" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="X35" s="47"/>
+      <c r="X35" s="48"/>
       <c r="Y35" s="1" t="s">
         <v>86</v>
       </c>
@@ -4363,7 +4667,7 @@
       <c r="AC35" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="AD35" s="42"/>
+      <c r="AD35" s="43"/>
       <c r="AE35" s="1" t="s">
         <v>86</v>
       </c>
@@ -4377,7 +4681,7 @@
       <c r="AI35" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="AJ35" s="42"/>
+      <c r="AJ35" s="43"/>
       <c r="AK35" s="1" t="s">
         <v>86</v>
       </c>
@@ -4391,15 +4695,18 @@
       <c r="AO35" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="AP35" s="42"/>
+      <c r="AP35" s="43"/>
       <c r="AQ35" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AR35" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT35" s="50"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="16"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>275</v>
       </c>
@@ -4409,7 +4716,7 @@
       <c r="C36" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="1" t="s">
         <v>87</v>
       </c>
@@ -4423,7 +4730,7 @@
       <c r="Q36" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="R36" s="42"/>
+      <c r="R36" s="43"/>
       <c r="S36" s="1" t="s">
         <v>87</v>
       </c>
@@ -4437,7 +4744,7 @@
       <c r="W36" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="X36" s="47"/>
+      <c r="X36" s="48"/>
       <c r="Y36" s="1" t="s">
         <v>87</v>
       </c>
@@ -4451,7 +4758,7 @@
       <c r="AC36" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="AD36" s="42"/>
+      <c r="AD36" s="43"/>
       <c r="AE36" s="1" t="s">
         <v>87</v>
       </c>
@@ -4465,7 +4772,7 @@
       <c r="AI36" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="AJ36" s="42"/>
+      <c r="AJ36" s="43"/>
       <c r="AK36" s="1" t="s">
         <v>87</v>
       </c>
@@ -4479,15 +4786,18 @@
       <c r="AO36" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="AP36" s="42"/>
+      <c r="AP36" s="43"/>
       <c r="AQ36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AR36" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="AT36" s="50"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="16"/>
+    </row>
+    <row r="37" spans="1:50" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>275</v>
       </c>
@@ -4497,7 +4807,7 @@
       <c r="C37" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E37" s="42"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="1" t="s">
         <v>88</v>
       </c>
@@ -4511,7 +4821,7 @@
       <c r="Q37" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="R37" s="42"/>
+      <c r="R37" s="43"/>
       <c r="S37" s="1" t="s">
         <v>88</v>
       </c>
@@ -4525,7 +4835,7 @@
       <c r="W37" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="X37" s="47"/>
+      <c r="X37" s="48"/>
       <c r="Y37" s="1" t="s">
         <v>88</v>
       </c>
@@ -4539,7 +4849,7 @@
       <c r="AC37" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="AD37" s="42"/>
+      <c r="AD37" s="43"/>
       <c r="AE37" s="1" t="s">
         <v>88</v>
       </c>
@@ -4553,7 +4863,7 @@
       <c r="AI37" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="AJ37" s="42"/>
+      <c r="AJ37" s="43"/>
       <c r="AK37" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,15 +4877,18 @@
       <c r="AO37" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="AP37" s="42"/>
+      <c r="AP37" s="43"/>
       <c r="AQ37" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AR37" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT37" s="50"/>
+      <c r="AW37" s="51"/>
+      <c r="AX37" s="16"/>
+    </row>
+    <row r="38" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>275</v>
       </c>
@@ -4585,7 +4898,7 @@
       <c r="C38" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E38" s="42"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="1" t="s">
         <v>90</v>
       </c>
@@ -4599,7 +4912,7 @@
       <c r="Q38" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="R38" s="42"/>
+      <c r="R38" s="43"/>
       <c r="S38" s="1" t="s">
         <v>90</v>
       </c>
@@ -4613,7 +4926,7 @@
       <c r="W38" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="X38" s="47"/>
+      <c r="X38" s="48"/>
       <c r="Y38" s="1" t="s">
         <v>90</v>
       </c>
@@ -4627,7 +4940,7 @@
       <c r="AC38" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="AD38" s="42"/>
+      <c r="AD38" s="43"/>
       <c r="AE38" s="1" t="s">
         <v>90</v>
       </c>
@@ -4641,7 +4954,7 @@
       <c r="AI38" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="AJ38" s="42"/>
+      <c r="AJ38" s="43"/>
       <c r="AK38" s="1" t="s">
         <v>90</v>
       </c>
@@ -4655,15 +4968,18 @@
       <c r="AO38" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="AP38" s="42"/>
+      <c r="AP38" s="43"/>
       <c r="AQ38" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AR38" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT38" s="50"/>
+      <c r="AW38" s="51"/>
+      <c r="AX38" s="16"/>
+    </row>
+    <row r="39" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>275</v>
       </c>
@@ -4673,7 +4989,7 @@
       <c r="C39" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E39" s="42"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
       </c>
@@ -4687,7 +5003,7 @@
       <c r="Q39" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="R39" s="42"/>
+      <c r="R39" s="43"/>
       <c r="S39" s="1" t="s">
         <v>92</v>
       </c>
@@ -4701,7 +5017,7 @@
       <c r="W39" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="X39" s="47"/>
+      <c r="X39" s="48"/>
       <c r="Y39" s="1" t="s">
         <v>92</v>
       </c>
@@ -4715,7 +5031,7 @@
       <c r="AC39" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="AD39" s="42"/>
+      <c r="AD39" s="43"/>
       <c r="AE39" s="1" t="s">
         <v>92</v>
       </c>
@@ -4729,7 +5045,7 @@
       <c r="AI39" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="AJ39" s="42"/>
+      <c r="AJ39" s="43"/>
       <c r="AK39" s="1" t="s">
         <v>92</v>
       </c>
@@ -4743,15 +5059,18 @@
       <c r="AO39" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="AP39" s="42"/>
+      <c r="AP39" s="43"/>
       <c r="AQ39" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AR39" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT39" s="50"/>
+      <c r="AW39" s="51"/>
+      <c r="AX39" s="16"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>275</v>
       </c>
@@ -4761,7 +5080,7 @@
       <c r="C40" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E40" s="42"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="1" t="s">
         <v>94</v>
       </c>
@@ -4775,7 +5094,7 @@
       <c r="Q40" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="R40" s="42"/>
+      <c r="R40" s="43"/>
       <c r="S40" s="1" t="s">
         <v>94</v>
       </c>
@@ -4789,7 +5108,7 @@
       <c r="W40" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="X40" s="47"/>
+      <c r="X40" s="48"/>
       <c r="Y40" s="1" t="s">
         <v>94</v>
       </c>
@@ -4803,7 +5122,7 @@
       <c r="AC40" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="AD40" s="42"/>
+      <c r="AD40" s="43"/>
       <c r="AE40" s="1" t="s">
         <v>94</v>
       </c>
@@ -4817,7 +5136,7 @@
       <c r="AI40" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="AJ40" s="42"/>
+      <c r="AJ40" s="43"/>
       <c r="AK40" s="1" t="s">
         <v>94</v>
       </c>
@@ -4831,15 +5150,18 @@
       <c r="AO40" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="AP40" s="42"/>
+      <c r="AP40" s="43"/>
       <c r="AQ40" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR40" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT40" s="50"/>
+      <c r="AW40" s="51"/>
+      <c r="AX40" s="16"/>
+    </row>
+    <row r="41" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>275</v>
       </c>
@@ -4849,7 +5171,7 @@
       <c r="C41" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E41" s="42"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="1" t="s">
         <v>96</v>
       </c>
@@ -4863,7 +5185,7 @@
       <c r="Q41" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="R41" s="42"/>
+      <c r="R41" s="43"/>
       <c r="S41" s="1" t="s">
         <v>96</v>
       </c>
@@ -4877,7 +5199,7 @@
       <c r="W41" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="X41" s="47"/>
+      <c r="X41" s="48"/>
       <c r="Y41" s="1" t="s">
         <v>96</v>
       </c>
@@ -4891,7 +5213,7 @@
       <c r="AC41" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="AD41" s="42"/>
+      <c r="AD41" s="43"/>
       <c r="AE41" s="1" t="s">
         <v>96</v>
       </c>
@@ -4905,7 +5227,7 @@
       <c r="AI41" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="AJ41" s="42"/>
+      <c r="AJ41" s="43"/>
       <c r="AK41" s="1" t="s">
         <v>96</v>
       </c>
@@ -4919,15 +5241,18 @@
       <c r="AO41" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="AP41" s="42"/>
+      <c r="AP41" s="43"/>
       <c r="AQ41" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AR41" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT41" s="50"/>
+      <c r="AW41" s="51"/>
+      <c r="AX41" s="23"/>
+    </row>
+    <row r="42" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>275</v>
       </c>
@@ -4937,7 +5262,7 @@
       <c r="C42" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="1" t="s">
         <v>98</v>
       </c>
@@ -4951,7 +5276,7 @@
       <c r="Q42" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="R42" s="42"/>
+      <c r="R42" s="43"/>
       <c r="S42" s="1" t="s">
         <v>98</v>
       </c>
@@ -4965,7 +5290,7 @@
       <c r="W42" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="X42" s="47"/>
+      <c r="X42" s="48"/>
       <c r="Y42" s="1" t="s">
         <v>98</v>
       </c>
@@ -4979,7 +5304,7 @@
       <c r="AC42" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="AD42" s="42"/>
+      <c r="AD42" s="43"/>
       <c r="AE42" s="1" t="s">
         <v>98</v>
       </c>
@@ -4993,7 +5318,7 @@
       <c r="AI42" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="AJ42" s="42"/>
+      <c r="AJ42" s="43"/>
       <c r="AK42" s="1" t="s">
         <v>98</v>
       </c>
@@ -5007,15 +5332,18 @@
       <c r="AO42" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="AP42" s="42"/>
+      <c r="AP42" s="43"/>
       <c r="AQ42" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AR42" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT42" s="50"/>
+      <c r="AW42" s="51"/>
+      <c r="AX42" s="23"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>275</v>
       </c>
@@ -5025,7 +5353,7 @@
       <c r="C43" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E43" s="42"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="1" t="s">
         <v>100</v>
       </c>
@@ -5039,7 +5367,7 @@
       <c r="Q43" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="R43" s="42"/>
+      <c r="R43" s="43"/>
       <c r="S43" s="1" t="s">
         <v>100</v>
       </c>
@@ -5053,7 +5381,7 @@
       <c r="W43" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="X43" s="47"/>
+      <c r="X43" s="48"/>
       <c r="Y43" s="1" t="s">
         <v>100</v>
       </c>
@@ -5067,7 +5395,7 @@
       <c r="AC43" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="AD43" s="42"/>
+      <c r="AD43" s="43"/>
       <c r="AE43" s="1" t="s">
         <v>100</v>
       </c>
@@ -5081,7 +5409,7 @@
       <c r="AI43" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="AJ43" s="42"/>
+      <c r="AJ43" s="43"/>
       <c r="AK43" s="1" t="s">
         <v>100</v>
       </c>
@@ -5095,15 +5423,18 @@
       <c r="AO43" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="AP43" s="42"/>
+      <c r="AP43" s="43"/>
       <c r="AQ43" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AR43" s="2">
         <v>20400</v>
       </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT43" s="50"/>
+      <c r="AW43" s="51"/>
+      <c r="AX43" s="16"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>275</v>
       </c>
@@ -5113,7 +5444,7 @@
       <c r="C44" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E44" s="42"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="1" t="s">
         <v>101</v>
       </c>
@@ -5127,7 +5458,7 @@
       <c r="Q44" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="R44" s="42"/>
+      <c r="R44" s="43"/>
       <c r="S44" s="1" t="s">
         <v>101</v>
       </c>
@@ -5141,7 +5472,7 @@
       <c r="W44" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="X44" s="47"/>
+      <c r="X44" s="48"/>
       <c r="Y44" s="1" t="s">
         <v>101</v>
       </c>
@@ -5155,7 +5486,7 @@
       <c r="AC44" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="AD44" s="42"/>
+      <c r="AD44" s="43"/>
       <c r="AE44" s="1" t="s">
         <v>101</v>
       </c>
@@ -5169,7 +5500,7 @@
       <c r="AI44" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="AJ44" s="42"/>
+      <c r="AJ44" s="43"/>
       <c r="AK44" s="1" t="s">
         <v>101</v>
       </c>
@@ -5183,15 +5514,18 @@
       <c r="AO44" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="AP44" s="42"/>
+      <c r="AP44" s="43"/>
       <c r="AQ44" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AR44" s="2">
         <v>20400</v>
       </c>
-    </row>
-    <row r="45" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="AT44" s="50"/>
+      <c r="AW44" s="51"/>
+      <c r="AX44" s="16"/>
+    </row>
+    <row r="45" spans="1:50" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>275</v>
       </c>
@@ -5201,7 +5535,7 @@
       <c r="C45" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E45" s="42"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="1" t="s">
         <v>102</v>
       </c>
@@ -5215,7 +5549,7 @@
       <c r="Q45" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="R45" s="42"/>
+      <c r="R45" s="43"/>
       <c r="S45" s="1" t="s">
         <v>102</v>
       </c>
@@ -5229,7 +5563,7 @@
       <c r="W45" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="X45" s="47"/>
+      <c r="X45" s="48"/>
       <c r="Y45" s="1" t="s">
         <v>102</v>
       </c>
@@ -5243,7 +5577,7 @@
       <c r="AC45" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="AD45" s="42"/>
+      <c r="AD45" s="43"/>
       <c r="AE45" s="1" t="s">
         <v>102</v>
       </c>
@@ -5257,7 +5591,7 @@
       <c r="AI45" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="AJ45" s="42"/>
+      <c r="AJ45" s="43"/>
       <c r="AK45" s="1" t="s">
         <v>102</v>
       </c>
@@ -5271,15 +5605,18 @@
       <c r="AO45" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="AP45" s="42"/>
+      <c r="AP45" s="43"/>
       <c r="AQ45" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AR45" s="2">
         <v>16513.62</v>
       </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT45" s="50"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="16"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>275</v>
       </c>
@@ -5289,7 +5626,7 @@
       <c r="C46" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E46" s="42"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="1" t="s">
         <v>103</v>
       </c>
@@ -5303,7 +5640,7 @@
       <c r="Q46" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="R46" s="42"/>
+      <c r="R46" s="43"/>
       <c r="S46" s="1" t="s">
         <v>103</v>
       </c>
@@ -5315,7 +5652,7 @@
       <c r="W46" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="X46" s="47"/>
+      <c r="X46" s="48"/>
       <c r="Y46" s="1" t="s">
         <v>103</v>
       </c>
@@ -5327,7 +5664,7 @@
       <c r="AC46" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="AD46" s="42"/>
+      <c r="AD46" s="43"/>
       <c r="AE46" s="1" t="s">
         <v>103</v>
       </c>
@@ -5339,7 +5676,7 @@
       <c r="AI46" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="AJ46" s="42"/>
+      <c r="AJ46" s="43"/>
       <c r="AK46" s="1" t="s">
         <v>103</v>
       </c>
@@ -5351,13 +5688,16 @@
       <c r="AO46" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="AP46" s="42"/>
+      <c r="AP46" s="43"/>
       <c r="AQ46" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AR46" s="2"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT46" s="50"/>
+      <c r="AW46" s="51"/>
+      <c r="AX46" s="16"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>275</v>
       </c>
@@ -5367,7 +5707,7 @@
       <c r="C47" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E47" s="42"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="1" t="s">
         <v>104</v>
       </c>
@@ -5381,7 +5721,7 @@
       <c r="Q47" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="R47" s="42"/>
+      <c r="R47" s="43"/>
       <c r="S47" s="1" t="s">
         <v>104</v>
       </c>
@@ -5393,7 +5733,7 @@
       <c r="W47" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="X47" s="47"/>
+      <c r="X47" s="48"/>
       <c r="Y47" s="1" t="s">
         <v>104</v>
       </c>
@@ -5405,7 +5745,7 @@
       <c r="AC47" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="AD47" s="42"/>
+      <c r="AD47" s="43"/>
       <c r="AE47" s="1" t="s">
         <v>104</v>
       </c>
@@ -5417,7 +5757,7 @@
       <c r="AI47" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="AJ47" s="42"/>
+      <c r="AJ47" s="43"/>
       <c r="AK47" s="1" t="s">
         <v>104</v>
       </c>
@@ -5429,13 +5769,16 @@
       <c r="AO47" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="AP47" s="42"/>
+      <c r="AP47" s="43"/>
       <c r="AQ47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AR47" s="2"/>
-    </row>
-    <row r="48" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT47" s="50"/>
+      <c r="AW47" s="51"/>
+      <c r="AX47" s="16"/>
+    </row>
+    <row r="48" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>275</v>
       </c>
@@ -5445,7 +5788,7 @@
       <c r="C48" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E48" s="42"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="1" t="s">
         <v>105</v>
       </c>
@@ -5459,7 +5802,7 @@
       <c r="Q48" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="R48" s="42"/>
+      <c r="R48" s="43"/>
       <c r="S48" s="1" t="s">
         <v>105</v>
       </c>
@@ -5471,7 +5814,7 @@
       <c r="W48" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="X48" s="47"/>
+      <c r="X48" s="48"/>
       <c r="Y48" s="1" t="s">
         <v>105</v>
       </c>
@@ -5483,7 +5826,7 @@
       <c r="AC48" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="AD48" s="42"/>
+      <c r="AD48" s="43"/>
       <c r="AE48" s="1" t="s">
         <v>105</v>
       </c>
@@ -5495,7 +5838,7 @@
       <c r="AI48" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="AJ48" s="42"/>
+      <c r="AJ48" s="43"/>
       <c r="AK48" s="1" t="s">
         <v>105</v>
       </c>
@@ -5507,13 +5850,16 @@
       <c r="AO48" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="AP48" s="42"/>
+      <c r="AP48" s="43"/>
       <c r="AQ48" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AR48" s="2"/>
-    </row>
-    <row r="49" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT48" s="50"/>
+      <c r="AW48" s="51"/>
+      <c r="AX48" s="16"/>
+    </row>
+    <row r="49" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>275</v>
       </c>
@@ -5523,7 +5869,7 @@
       <c r="C49" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E49" s="42"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="1" t="s">
         <v>106</v>
       </c>
@@ -5537,7 +5883,7 @@
       <c r="Q49" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="R49" s="42"/>
+      <c r="R49" s="43"/>
       <c r="S49" s="1" t="s">
         <v>106</v>
       </c>
@@ -5549,7 +5895,7 @@
       <c r="W49" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="X49" s="47"/>
+      <c r="X49" s="48"/>
       <c r="Y49" s="1" t="s">
         <v>106</v>
       </c>
@@ -5561,7 +5907,7 @@
       <c r="AC49" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="AD49" s="42"/>
+      <c r="AD49" s="43"/>
       <c r="AE49" s="1" t="s">
         <v>106</v>
       </c>
@@ -5573,7 +5919,7 @@
       <c r="AI49" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="AJ49" s="42"/>
+      <c r="AJ49" s="43"/>
       <c r="AK49" s="1" t="s">
         <v>106</v>
       </c>
@@ -5585,13 +5931,16 @@
       <c r="AO49" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="AP49" s="42"/>
+      <c r="AP49" s="43"/>
       <c r="AQ49" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AR49" s="2"/>
-    </row>
-    <row r="50" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT49" s="50"/>
+      <c r="AW49" s="51"/>
+      <c r="AX49" s="16"/>
+    </row>
+    <row r="50" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>275</v>
       </c>
@@ -5601,7 +5950,7 @@
       <c r="C50" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="42"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="1" t="s">
         <v>107</v>
       </c>
@@ -5615,7 +5964,7 @@
       <c r="Q50" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="R50" s="42"/>
+      <c r="R50" s="43"/>
       <c r="S50" s="1" t="s">
         <v>107</v>
       </c>
@@ -5627,7 +5976,7 @@
       <c r="W50" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="X50" s="47"/>
+      <c r="X50" s="48"/>
       <c r="Y50" s="1" t="s">
         <v>107</v>
       </c>
@@ -5639,7 +5988,7 @@
       <c r="AC50" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="AD50" s="42"/>
+      <c r="AD50" s="43"/>
       <c r="AE50" s="1" t="s">
         <v>107</v>
       </c>
@@ -5651,7 +6000,7 @@
       <c r="AI50" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="AJ50" s="42"/>
+      <c r="AJ50" s="43"/>
       <c r="AK50" s="1" t="s">
         <v>107</v>
       </c>
@@ -5663,13 +6012,16 @@
       <c r="AO50" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="AP50" s="42"/>
+      <c r="AP50" s="43"/>
       <c r="AQ50" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AR50" s="2"/>
-    </row>
-    <row r="51" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT50" s="50"/>
+      <c r="AW50" s="51"/>
+      <c r="AX50" s="16"/>
+    </row>
+    <row r="51" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>275</v>
       </c>
@@ -5679,7 +6031,7 @@
       <c r="C51" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="1" t="s">
         <v>108</v>
       </c>
@@ -5693,7 +6045,7 @@
       <c r="Q51" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="R51" s="42"/>
+      <c r="R51" s="43"/>
       <c r="S51" s="1" t="s">
         <v>108</v>
       </c>
@@ -5707,7 +6059,7 @@
       <c r="W51" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="X51" s="47"/>
+      <c r="X51" s="48"/>
       <c r="Y51" s="1" t="s">
         <v>108</v>
       </c>
@@ -5721,7 +6073,7 @@
       <c r="AC51" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="AD51" s="42"/>
+      <c r="AD51" s="43"/>
       <c r="AE51" s="1" t="s">
         <v>108</v>
       </c>
@@ -5735,7 +6087,7 @@
       <c r="AI51" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="AJ51" s="42"/>
+      <c r="AJ51" s="43"/>
       <c r="AK51" s="1" t="s">
         <v>108</v>
       </c>
@@ -5749,15 +6101,18 @@
       <c r="AO51" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="AP51" s="42"/>
+      <c r="AP51" s="43"/>
       <c r="AQ51" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AR51" s="2">
         <v>14640</v>
       </c>
-    </row>
-    <row r="52" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT51" s="50"/>
+      <c r="AW51" s="51"/>
+      <c r="AX51" s="16"/>
+    </row>
+    <row r="52" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>275</v>
       </c>
@@ -5767,7 +6122,7 @@
       <c r="C52" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E52" s="42"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="1" t="s">
         <v>109</v>
       </c>
@@ -5781,7 +6136,7 @@
       <c r="Q52" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="R52" s="42"/>
+      <c r="R52" s="43"/>
       <c r="S52" s="1" t="s">
         <v>109</v>
       </c>
@@ -5795,7 +6150,7 @@
       <c r="W52" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="X52" s="47"/>
+      <c r="X52" s="48"/>
       <c r="Y52" s="1" t="s">
         <v>109</v>
       </c>
@@ -5809,7 +6164,7 @@
       <c r="AC52" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="AD52" s="42"/>
+      <c r="AD52" s="43"/>
       <c r="AE52" s="1" t="s">
         <v>109</v>
       </c>
@@ -5823,7 +6178,7 @@
       <c r="AI52" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="AJ52" s="42"/>
+      <c r="AJ52" s="43"/>
       <c r="AK52" s="1" t="s">
         <v>109</v>
       </c>
@@ -5837,15 +6192,18 @@
       <c r="AO52" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="AP52" s="42"/>
+      <c r="AP52" s="43"/>
       <c r="AQ52" s="1" t="s">
         <v>109</v>
       </c>
       <c r="AR52" s="2">
         <v>24058</v>
       </c>
-    </row>
-    <row r="53" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT52" s="50"/>
+      <c r="AW52" s="51"/>
+      <c r="AX52" s="16"/>
+    </row>
+    <row r="53" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>275</v>
       </c>
@@ -5855,7 +6213,7 @@
       <c r="C53" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E53" s="42"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="1" t="s">
         <v>110</v>
       </c>
@@ -5869,7 +6227,7 @@
       <c r="Q53" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="R53" s="42"/>
+      <c r="R53" s="43"/>
       <c r="S53" s="1" t="s">
         <v>110</v>
       </c>
@@ -5881,7 +6239,7 @@
       <c r="W53" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="X53" s="47"/>
+      <c r="X53" s="48"/>
       <c r="Y53" s="1" t="s">
         <v>110</v>
       </c>
@@ -5893,7 +6251,7 @@
       <c r="AC53" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="AD53" s="42"/>
+      <c r="AD53" s="43"/>
       <c r="AE53" s="1" t="s">
         <v>110</v>
       </c>
@@ -5905,7 +6263,7 @@
       <c r="AI53" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="AJ53" s="42"/>
+      <c r="AJ53" s="43"/>
       <c r="AK53" s="1" t="s">
         <v>110</v>
       </c>
@@ -5917,13 +6275,16 @@
       <c r="AO53" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="AP53" s="42"/>
+      <c r="AP53" s="43"/>
       <c r="AQ53" s="1" t="s">
         <v>110</v>
       </c>
       <c r="AR53" s="2"/>
-    </row>
-    <row r="54" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT53" s="50"/>
+      <c r="AW53" s="51"/>
+      <c r="AX53" s="16"/>
+    </row>
+    <row r="54" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>275</v>
       </c>
@@ -5933,7 +6294,7 @@
       <c r="C54" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E54" s="42"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="1" t="s">
         <v>111</v>
       </c>
@@ -5947,7 +6308,7 @@
       <c r="Q54" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="R54" s="42"/>
+      <c r="R54" s="43"/>
       <c r="S54" s="1" t="s">
         <v>111</v>
       </c>
@@ -5959,7 +6320,7 @@
       <c r="W54" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="X54" s="47"/>
+      <c r="X54" s="48"/>
       <c r="Y54" s="1" t="s">
         <v>111</v>
       </c>
@@ -5971,7 +6332,7 @@
       <c r="AC54" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="AD54" s="42"/>
+      <c r="AD54" s="43"/>
       <c r="AE54" s="1" t="s">
         <v>111</v>
       </c>
@@ -5983,7 +6344,7 @@
       <c r="AI54" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="AJ54" s="42"/>
+      <c r="AJ54" s="43"/>
       <c r="AK54" s="1" t="s">
         <v>111</v>
       </c>
@@ -5995,13 +6356,16 @@
       <c r="AO54" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="AP54" s="42"/>
+      <c r="AP54" s="43"/>
       <c r="AQ54" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AR54" s="2"/>
-    </row>
-    <row r="55" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT54" s="50"/>
+      <c r="AW54" s="51"/>
+      <c r="AX54" s="16"/>
+    </row>
+    <row r="55" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>275</v>
       </c>
@@ -6011,7 +6375,7 @@
       <c r="C55" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E55" s="42"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="1" t="s">
         <v>112</v>
       </c>
@@ -6025,7 +6389,7 @@
       <c r="Q55" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="R55" s="42"/>
+      <c r="R55" s="43"/>
       <c r="S55" s="1" t="s">
         <v>112</v>
       </c>
@@ -6037,7 +6401,7 @@
       <c r="W55" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="X55" s="47"/>
+      <c r="X55" s="48"/>
       <c r="Y55" s="1" t="s">
         <v>112</v>
       </c>
@@ -6049,7 +6413,7 @@
       <c r="AC55" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="AD55" s="42"/>
+      <c r="AD55" s="43"/>
       <c r="AE55" s="1" t="s">
         <v>112</v>
       </c>
@@ -6061,7 +6425,7 @@
       <c r="AI55" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="AJ55" s="42"/>
+      <c r="AJ55" s="43"/>
       <c r="AK55" s="1" t="s">
         <v>112</v>
       </c>
@@ -6073,13 +6437,16 @@
       <c r="AO55" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="AP55" s="42"/>
+      <c r="AP55" s="43"/>
       <c r="AQ55" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AR55" s="2"/>
-    </row>
-    <row r="56" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT55" s="50"/>
+      <c r="AW55" s="51"/>
+      <c r="AX55" s="16"/>
+    </row>
+    <row r="56" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>275</v>
       </c>
@@ -6089,7 +6456,7 @@
       <c r="C56" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E56" s="43"/>
+      <c r="E56" s="44"/>
       <c r="F56" s="1" t="s">
         <v>113</v>
       </c>
@@ -6103,7 +6470,7 @@
       <c r="Q56" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="R56" s="43"/>
+      <c r="R56" s="44"/>
       <c r="S56" s="1" t="s">
         <v>113</v>
       </c>
@@ -6117,7 +6484,7 @@
       <c r="W56" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="X56" s="48"/>
+      <c r="X56" s="49"/>
       <c r="Y56" s="1" t="s">
         <v>113</v>
       </c>
@@ -6131,7 +6498,7 @@
       <c r="AC56" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="AD56" s="43"/>
+      <c r="AD56" s="44"/>
       <c r="AE56" s="1" t="s">
         <v>113</v>
       </c>
@@ -6145,7 +6512,7 @@
       <c r="AI56" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="AJ56" s="43"/>
+      <c r="AJ56" s="44"/>
       <c r="AK56" s="1" t="s">
         <v>113</v>
       </c>
@@ -6159,15 +6526,18 @@
       <c r="AO56" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="AP56" s="43"/>
+      <c r="AP56" s="44"/>
       <c r="AQ56" s="1" t="s">
         <v>113</v>
       </c>
       <c r="AR56" s="2">
         <v>38698</v>
       </c>
-    </row>
-    <row r="57" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT56" s="50"/>
+      <c r="AW56" s="51"/>
+      <c r="AX56" s="16"/>
+    </row>
+    <row r="57" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>275</v>
       </c>
@@ -6177,7 +6547,7 @@
       <c r="C57" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="33" t="s">
         <v>31</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -6192,7 +6562,7 @@
       <c r="K57" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="L57" s="32" t="s">
+      <c r="L57" s="33" t="s">
         <v>31</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -6208,7 +6578,7 @@
       <c r="Q57" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="R57" s="32" t="s">
+      <c r="R57" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S57" s="1" t="s">
@@ -6223,7 +6593,7 @@
       <c r="AI57" s="28"/>
       <c r="AO57" s="28"/>
     </row>
-    <row r="58" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>275</v>
       </c>
@@ -6233,7 +6603,7 @@
       <c r="C58" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E58" s="33"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="1" t="s">
         <v>34</v>
       </c>
@@ -6246,7 +6616,7 @@
       <c r="K58" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="L58" s="33"/>
+      <c r="L58" s="34"/>
       <c r="M58" s="1" t="s">
         <v>34</v>
       </c>
@@ -6260,7 +6630,7 @@
       <c r="Q58" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="R58" s="33"/>
+      <c r="R58" s="34"/>
       <c r="S58" s="1" t="s">
         <v>34</v>
       </c>
@@ -6273,7 +6643,7 @@
       <c r="AI58" s="28"/>
       <c r="AO58" s="28"/>
     </row>
-    <row r="59" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>275</v>
       </c>
@@ -6283,7 +6653,7 @@
       <c r="C59" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="33"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="1" t="s">
         <v>35</v>
       </c>
@@ -6296,7 +6666,7 @@
       <c r="K59" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="L59" s="33"/>
+      <c r="L59" s="34"/>
       <c r="M59" s="1" t="s">
         <v>35</v>
       </c>
@@ -6310,7 +6680,7 @@
       <c r="Q59" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="R59" s="33"/>
+      <c r="R59" s="34"/>
       <c r="S59" s="1" t="s">
         <v>35</v>
       </c>
@@ -6323,7 +6693,7 @@
       <c r="AI59" s="28"/>
       <c r="AO59" s="28"/>
     </row>
-    <row r="60" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>275</v>
       </c>
@@ -6333,7 +6703,7 @@
       <c r="C60" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E60" s="33"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="1" t="s">
         <v>37</v>
       </c>
@@ -6346,7 +6716,7 @@
       <c r="K60" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="L60" s="33"/>
+      <c r="L60" s="34"/>
       <c r="M60" s="1" t="s">
         <v>37</v>
       </c>
@@ -6360,7 +6730,7 @@
       <c r="Q60" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="R60" s="33"/>
+      <c r="R60" s="34"/>
       <c r="S60" s="1" t="s">
         <v>37</v>
       </c>
@@ -6373,7 +6743,7 @@
       <c r="AI60" s="28"/>
       <c r="AO60" s="28"/>
     </row>
-    <row r="61" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>275</v>
       </c>
@@ -6383,7 +6753,7 @@
       <c r="C61" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E61" s="33"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="1" t="s">
         <v>39</v>
       </c>
@@ -6396,7 +6766,7 @@
       <c r="K61" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="L61" s="33"/>
+      <c r="L61" s="34"/>
       <c r="M61" s="1" t="s">
         <v>39</v>
       </c>
@@ -6410,7 +6780,7 @@
       <c r="Q61" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="R61" s="33"/>
+      <c r="R61" s="34"/>
       <c r="S61" s="1" t="s">
         <v>39</v>
       </c>
@@ -6423,7 +6793,7 @@
       <c r="AI61" s="28"/>
       <c r="AO61" s="28"/>
     </row>
-    <row r="62" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>275</v>
       </c>
@@ -6433,7 +6803,7 @@
       <c r="C62" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E62" s="33"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="7" t="s">
         <v>41</v>
       </c>
@@ -6446,7 +6816,7 @@
       <c r="K62" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="L62" s="33"/>
+      <c r="L62" s="34"/>
       <c r="M62" s="7" t="s">
         <v>41</v>
       </c>
@@ -6460,7 +6830,7 @@
       <c r="Q62" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="R62" s="33"/>
+      <c r="R62" s="34"/>
       <c r="S62" s="7" t="s">
         <v>41</v>
       </c>
@@ -6473,7 +6843,7 @@
       <c r="AI62" s="28"/>
       <c r="AO62" s="28"/>
     </row>
-    <row r="63" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>275</v>
       </c>
@@ -6483,7 +6853,7 @@
       <c r="C63" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E63" s="33"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="1" t="s">
         <v>42</v>
       </c>
@@ -6496,7 +6866,7 @@
       <c r="K63" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="L63" s="33"/>
+      <c r="L63" s="34"/>
       <c r="M63" s="1" t="s">
         <v>42</v>
       </c>
@@ -6510,7 +6880,7 @@
       <c r="Q63" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="R63" s="33"/>
+      <c r="R63" s="34"/>
       <c r="S63" s="1" t="s">
         <v>42</v>
       </c>
@@ -6523,7 +6893,7 @@
       <c r="AI63" s="28"/>
       <c r="AO63" s="28"/>
     </row>
-    <row r="64" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>275</v>
       </c>
@@ -6533,7 +6903,7 @@
       <c r="C64" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E64" s="33"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="1" t="s">
         <v>44</v>
       </c>
@@ -6546,7 +6916,7 @@
       <c r="K64" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="L64" s="33"/>
+      <c r="L64" s="34"/>
       <c r="M64" s="1" t="s">
         <v>44</v>
       </c>
@@ -6560,7 +6930,7 @@
       <c r="Q64" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="R64" s="33"/>
+      <c r="R64" s="34"/>
       <c r="S64" s="1" t="s">
         <v>44</v>
       </c>
@@ -6583,7 +6953,7 @@
       <c r="C65" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E65" s="33"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="1" t="s">
         <v>45</v>
       </c>
@@ -6596,7 +6966,7 @@
       <c r="K65" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="L65" s="33"/>
+      <c r="L65" s="34"/>
       <c r="M65" s="1" t="s">
         <v>45</v>
       </c>
@@ -6610,7 +6980,7 @@
       <c r="Q65" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="R65" s="33"/>
+      <c r="R65" s="34"/>
       <c r="S65" s="1" t="s">
         <v>45</v>
       </c>
@@ -6633,7 +7003,7 @@
       <c r="C66" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E66" s="33"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="1" t="s">
         <v>47</v>
       </c>
@@ -6646,7 +7016,7 @@
       <c r="K66" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="L66" s="33"/>
+      <c r="L66" s="34"/>
       <c r="M66" s="1" t="s">
         <v>47</v>
       </c>
@@ -6660,7 +7030,7 @@
       <c r="Q66" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="R66" s="33"/>
+      <c r="R66" s="34"/>
       <c r="S66" s="1" t="s">
         <v>47</v>
       </c>
@@ -6683,7 +7053,7 @@
       <c r="C67" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E67" s="33"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="1" t="s">
         <v>48</v>
       </c>
@@ -6696,7 +7066,7 @@
       <c r="K67" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="L67" s="33"/>
+      <c r="L67" s="34"/>
       <c r="M67" s="1" t="s">
         <v>48</v>
       </c>
@@ -6708,7 +7078,7 @@
       <c r="Q67" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="R67" s="33"/>
+      <c r="R67" s="34"/>
       <c r="S67" s="1" t="s">
         <v>48</v>
       </c>
@@ -6729,7 +7099,7 @@
       <c r="C68" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E68" s="34"/>
+      <c r="E68" s="35"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
@@ -6742,7 +7112,7 @@
       <c r="K68" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="L68" s="34"/>
+      <c r="L68" s="35"/>
       <c r="M68" s="1" t="s">
         <v>49</v>
       </c>
@@ -6754,7 +7124,7 @@
       <c r="Q68" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="R68" s="34"/>
+      <c r="R68" s="35"/>
       <c r="S68" s="1" t="s">
         <v>49</v>
       </c>
@@ -6775,7 +7145,7 @@
       <c r="C69" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="33" t="s">
         <v>50</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -6790,7 +7160,7 @@
       <c r="K69" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="L69" s="32" t="s">
+      <c r="L69" s="33" t="s">
         <v>50</v>
       </c>
       <c r="M69" s="1" t="s">
@@ -6804,7 +7174,7 @@
       <c r="Q69" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="R69" s="32" t="s">
+      <c r="R69" s="33" t="s">
         <v>50</v>
       </c>
       <c r="S69" s="1" t="s">
@@ -6827,7 +7197,7 @@
       <c r="C70" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E70" s="33"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="1" t="s">
         <v>114</v>
       </c>
@@ -6840,7 +7210,7 @@
       <c r="K70" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="L70" s="33"/>
+      <c r="L70" s="34"/>
       <c r="M70" s="1" t="s">
         <v>52</v>
       </c>
@@ -6854,7 +7224,7 @@
       <c r="Q70" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="R70" s="33"/>
+      <c r="R70" s="34"/>
       <c r="S70" s="1" t="s">
         <v>114</v>
       </c>
@@ -6877,7 +7247,7 @@
       <c r="C71" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E71" s="34"/>
+      <c r="E71" s="35"/>
       <c r="F71" s="1" t="s">
         <v>53</v>
       </c>
@@ -6890,7 +7260,7 @@
       <c r="K71" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="L71" s="34"/>
+      <c r="L71" s="35"/>
       <c r="M71" s="1" t="s">
         <v>53</v>
       </c>
@@ -6904,7 +7274,7 @@
       <c r="Q71" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="R71" s="34"/>
+      <c r="R71" s="35"/>
       <c r="S71" s="1" t="s">
         <v>53</v>
       </c>
@@ -6927,7 +7297,7 @@
       <c r="C72" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="33" t="s">
         <v>118</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -6945,7 +7315,7 @@
       <c r="AC72" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="AD72" s="32" t="s">
+      <c r="AD72" s="33" t="s">
         <v>118</v>
       </c>
       <c r="AE72" s="1" t="s">
@@ -6959,7 +7329,7 @@
       <c r="AI72" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="AJ72" s="32" t="s">
+      <c r="AJ72" s="33" t="s">
         <v>118</v>
       </c>
       <c r="AK72" s="1" t="s">
@@ -6979,7 +7349,7 @@
       <c r="C73" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E73" s="33"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="1" t="s">
         <v>120</v>
       </c>
@@ -6995,7 +7365,7 @@
       <c r="AC73" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="AD73" s="33"/>
+      <c r="AD73" s="34"/>
       <c r="AE73" s="1" t="s">
         <v>120</v>
       </c>
@@ -7007,7 +7377,7 @@
       <c r="AI73" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="AJ73" s="33"/>
+      <c r="AJ73" s="34"/>
       <c r="AK73" s="1" t="s">
         <v>120</v>
       </c>
@@ -7025,7 +7395,7 @@
       <c r="C74" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E74" s="33"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="1" t="s">
         <v>121</v>
       </c>
@@ -7041,7 +7411,7 @@
       <c r="AC74" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="AD74" s="33"/>
+      <c r="AD74" s="34"/>
       <c r="AE74" s="1" t="s">
         <v>121</v>
       </c>
@@ -7053,7 +7423,7 @@
       <c r="AI74" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="AJ74" s="33"/>
+      <c r="AJ74" s="34"/>
       <c r="AK74" s="1" t="s">
         <v>121</v>
       </c>
@@ -7071,7 +7441,7 @@
       <c r="C75" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E75" s="33"/>
+      <c r="E75" s="34"/>
       <c r="F75" s="1" t="s">
         <v>122</v>
       </c>
@@ -7087,7 +7457,7 @@
       <c r="AC75" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="AD75" s="33"/>
+      <c r="AD75" s="34"/>
       <c r="AE75" s="1" t="s">
         <v>122</v>
       </c>
@@ -7099,7 +7469,7 @@
       <c r="AI75" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="AJ75" s="33"/>
+      <c r="AJ75" s="34"/>
       <c r="AK75" s="1" t="s">
         <v>122</v>
       </c>
@@ -7117,7 +7487,7 @@
       <c r="C76" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E76" s="33"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="1" t="s">
         <v>123</v>
       </c>
@@ -7133,7 +7503,7 @@
       <c r="AC76" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="AD76" s="33"/>
+      <c r="AD76" s="34"/>
       <c r="AE76" s="1" t="s">
         <v>123</v>
       </c>
@@ -7145,7 +7515,7 @@
       <c r="AI76" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="AJ76" s="33"/>
+      <c r="AJ76" s="34"/>
       <c r="AK76" s="1" t="s">
         <v>123</v>
       </c>
@@ -7163,7 +7533,7 @@
       <c r="C77" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="34"/>
+      <c r="E77" s="35"/>
       <c r="F77" s="1" t="s">
         <v>124</v>
       </c>
@@ -7179,7 +7549,7 @@
       <c r="AC77" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="AD77" s="34"/>
+      <c r="AD77" s="35"/>
       <c r="AE77" s="1" t="s">
         <v>124</v>
       </c>
@@ -7191,7 +7561,7 @@
       <c r="AI77" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="AJ77" s="34"/>
+      <c r="AJ77" s="35"/>
       <c r="AK77" s="1" t="s">
         <v>124</v>
       </c>
@@ -7209,7 +7579,7 @@
       <c r="C78" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="33" t="s">
         <v>125</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -7227,7 +7597,7 @@
       <c r="AC78" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="AD78" s="32" t="s">
+      <c r="AD78" s="33" t="s">
         <v>125</v>
       </c>
       <c r="AE78" s="1" t="s">
@@ -7243,7 +7613,7 @@
       <c r="AI78" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="AJ78" s="32" t="s">
+      <c r="AJ78" s="33" t="s">
         <v>125</v>
       </c>
       <c r="AK78" s="1" t="s">
@@ -7265,7 +7635,7 @@
       <c r="C79" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E79" s="33"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="1" t="s">
         <v>127</v>
       </c>
@@ -7281,7 +7651,7 @@
       <c r="AC79" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AD79" s="33"/>
+      <c r="AD79" s="34"/>
       <c r="AE79" s="1" t="s">
         <v>127</v>
       </c>
@@ -7295,7 +7665,7 @@
       <c r="AI79" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AJ79" s="33"/>
+      <c r="AJ79" s="34"/>
       <c r="AK79" s="1" t="s">
         <v>127</v>
       </c>
@@ -7315,7 +7685,7 @@
       <c r="C80" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E80" s="33"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="1" t="s">
         <v>128</v>
       </c>
@@ -7331,7 +7701,7 @@
       <c r="AC80" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="AD80" s="33"/>
+      <c r="AD80" s="34"/>
       <c r="AE80" s="1" t="s">
         <v>128</v>
       </c>
@@ -7345,7 +7715,7 @@
       <c r="AI80" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="AJ80" s="33"/>
+      <c r="AJ80" s="34"/>
       <c r="AK80" s="1" t="s">
         <v>128</v>
       </c>
@@ -7355,7 +7725,7 @@
       <c r="AM80" s="16"/>
       <c r="AO80" s="28"/>
     </row>
-    <row r="81" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
         <v>275</v>
       </c>
@@ -7365,7 +7735,7 @@
       <c r="C81" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E81" s="33"/>
+      <c r="E81" s="34"/>
       <c r="F81" s="1" t="s">
         <v>129</v>
       </c>
@@ -7381,7 +7751,7 @@
       <c r="AC81" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AD81" s="33"/>
+      <c r="AD81" s="34"/>
       <c r="AE81" s="1" t="s">
         <v>129</v>
       </c>
@@ -7395,7 +7765,7 @@
       <c r="AI81" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AJ81" s="33"/>
+      <c r="AJ81" s="34"/>
       <c r="AK81" s="1" t="s">
         <v>129</v>
       </c>
@@ -7405,7 +7775,7 @@
       <c r="AM81" s="16"/>
       <c r="AO81" s="28"/>
     </row>
-    <row r="82" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>275</v>
       </c>
@@ -7415,7 +7785,7 @@
       <c r="C82" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E82" s="34"/>
+      <c r="E82" s="35"/>
       <c r="F82" s="1" t="s">
         <v>130</v>
       </c>
@@ -7431,7 +7801,7 @@
       <c r="AC82" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="AD82" s="34"/>
+      <c r="AD82" s="35"/>
       <c r="AE82" s="1" t="s">
         <v>130</v>
       </c>
@@ -7445,7 +7815,7 @@
       <c r="AI82" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="AJ82" s="34"/>
+      <c r="AJ82" s="35"/>
       <c r="AK82" s="1" t="s">
         <v>130</v>
       </c>
@@ -7455,7 +7825,7 @@
       <c r="AM82" s="16"/>
       <c r="AO82" s="28"/>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>275</v>
       </c>
@@ -7465,7 +7835,7 @@
       <c r="C83" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="34" t="s">
         <v>231</v>
       </c>
       <c r="F83" s="12" t="s">
@@ -7483,7 +7853,7 @@
       <c r="AC83" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="AD83" s="33" t="s">
+      <c r="AD83" s="34" t="s">
         <v>231</v>
       </c>
       <c r="AE83" s="12" t="s">
@@ -7497,7 +7867,7 @@
       <c r="AI83" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="AJ83" s="33" t="s">
+      <c r="AJ83" s="34" t="s">
         <v>231</v>
       </c>
       <c r="AK83" s="12" t="s">
@@ -7507,7 +7877,7 @@
       <c r="AM83" s="24"/>
       <c r="AO83" s="28"/>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
         <v>275</v>
       </c>
@@ -7517,7 +7887,7 @@
       <c r="C84" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E84" s="33"/>
+      <c r="E84" s="34"/>
       <c r="F84" s="12" t="s">
         <v>132</v>
       </c>
@@ -7533,7 +7903,7 @@
       <c r="AC84" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="AD84" s="33"/>
+      <c r="AD84" s="34"/>
       <c r="AE84" s="12" t="s">
         <v>132</v>
       </c>
@@ -7547,7 +7917,7 @@
       <c r="AI84" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="AJ84" s="33"/>
+      <c r="AJ84" s="34"/>
       <c r="AK84" s="12" t="s">
         <v>132</v>
       </c>
@@ -7557,7 +7927,7 @@
       <c r="AM84" s="16"/>
       <c r="AO84" s="28"/>
     </row>
-    <row r="85" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>275</v>
       </c>
@@ -7567,7 +7937,7 @@
       <c r="C85" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E85" s="33"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="12" t="s">
         <v>133</v>
       </c>
@@ -7583,7 +7953,7 @@
       <c r="AC85" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="AD85" s="33"/>
+      <c r="AD85" s="34"/>
       <c r="AE85" s="12" t="s">
         <v>133</v>
       </c>
@@ -7597,7 +7967,7 @@
       <c r="AI85" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="AJ85" s="33"/>
+      <c r="AJ85" s="34"/>
       <c r="AK85" s="12" t="s">
         <v>133</v>
       </c>
@@ -7607,7 +7977,7 @@
       <c r="AM85" s="16"/>
       <c r="AO85" s="28"/>
     </row>
-    <row r="86" spans="1:44" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>275</v>
       </c>
@@ -7617,7 +7987,7 @@
       <c r="C86" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E86" s="33"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="12" t="s">
         <v>134</v>
       </c>
@@ -7633,7 +8003,7 @@
       <c r="AC86" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="AD86" s="33"/>
+      <c r="AD86" s="34"/>
       <c r="AE86" s="12" t="s">
         <v>134</v>
       </c>
@@ -7645,7 +8015,7 @@
       <c r="AI86" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="AJ86" s="33"/>
+      <c r="AJ86" s="34"/>
       <c r="AK86" s="12" t="s">
         <v>134</v>
       </c>
@@ -7653,7 +8023,7 @@
       <c r="AM86" s="16"/>
       <c r="AO86" s="28"/>
     </row>
-    <row r="87" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>275</v>
       </c>
@@ -7663,7 +8033,7 @@
       <c r="C87" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E87" s="33"/>
+      <c r="E87" s="34"/>
       <c r="F87" s="12" t="s">
         <v>135</v>
       </c>
@@ -7679,7 +8049,7 @@
       <c r="AC87" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="AD87" s="33"/>
+      <c r="AD87" s="34"/>
       <c r="AE87" s="12" t="s">
         <v>135</v>
       </c>
@@ -7693,7 +8063,7 @@
       <c r="AI87" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="AJ87" s="33"/>
+      <c r="AJ87" s="34"/>
       <c r="AK87" s="12" t="s">
         <v>135</v>
       </c>
@@ -7703,7 +8073,7 @@
       <c r="AM87" s="16"/>
       <c r="AO87" s="28"/>
     </row>
-    <row r="88" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>275</v>
       </c>
@@ -7713,7 +8083,7 @@
       <c r="C88" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E88" s="33"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="12" t="s">
         <v>136</v>
       </c>
@@ -7729,7 +8099,7 @@
       <c r="AC88" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="AD88" s="33"/>
+      <c r="AD88" s="34"/>
       <c r="AE88" s="12" t="s">
         <v>136</v>
       </c>
@@ -7743,7 +8113,7 @@
       <c r="AI88" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="AJ88" s="33"/>
+      <c r="AJ88" s="34"/>
       <c r="AK88" s="12" t="s">
         <v>136</v>
       </c>
@@ -7753,7 +8123,7 @@
       <c r="AM88" s="16"/>
       <c r="AO88" s="28"/>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>275</v>
       </c>
@@ -7763,7 +8133,7 @@
       <c r="C89" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E89" s="33"/>
+      <c r="E89" s="34"/>
       <c r="F89" s="12" t="s">
         <v>137</v>
       </c>
@@ -7779,7 +8149,7 @@
       <c r="AC89" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="AD89" s="33"/>
+      <c r="AD89" s="34"/>
       <c r="AE89" s="12" t="s">
         <v>137</v>
       </c>
@@ -7793,7 +8163,7 @@
       <c r="AI89" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="AJ89" s="33"/>
+      <c r="AJ89" s="34"/>
       <c r="AK89" s="12" t="s">
         <v>137</v>
       </c>
@@ -7803,7 +8173,7 @@
       <c r="AM89" s="16"/>
       <c r="AO89" s="28"/>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>275</v>
       </c>
@@ -7813,7 +8183,7 @@
       <c r="C90" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="33"/>
+      <c r="E90" s="34"/>
       <c r="F90" s="12" t="s">
         <v>138</v>
       </c>
@@ -7829,7 +8199,7 @@
       <c r="AC90" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="AD90" s="33"/>
+      <c r="AD90" s="34"/>
       <c r="AE90" s="12" t="s">
         <v>138</v>
       </c>
@@ -7843,7 +8213,7 @@
       <c r="AI90" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="AJ90" s="33"/>
+      <c r="AJ90" s="34"/>
       <c r="AK90" s="12" t="s">
         <v>138</v>
       </c>
@@ -7853,7 +8223,7 @@
       <c r="AM90" s="20"/>
       <c r="AO90" s="28"/>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>275</v>
       </c>
@@ -7863,7 +8233,7 @@
       <c r="C91" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E91" s="33"/>
+      <c r="E91" s="34"/>
       <c r="F91" s="12" t="s">
         <v>139</v>
       </c>
@@ -7879,7 +8249,7 @@
       <c r="AC91" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="AD91" s="33"/>
+      <c r="AD91" s="34"/>
       <c r="AE91" s="12" t="s">
         <v>139</v>
       </c>
@@ -7893,7 +8263,7 @@
       <c r="AI91" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="AJ91" s="33"/>
+      <c r="AJ91" s="34"/>
       <c r="AK91" s="12" t="s">
         <v>139</v>
       </c>
@@ -7903,7 +8273,7 @@
       <c r="AM91" s="19"/>
       <c r="AO91" s="28"/>
     </row>
-    <row r="92" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
         <v>275</v>
       </c>
@@ -7913,7 +8283,7 @@
       <c r="C92" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E92" s="34"/>
+      <c r="E92" s="35"/>
       <c r="F92" s="12" t="s">
         <v>140</v>
       </c>
@@ -7929,7 +8299,7 @@
       <c r="AC92" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="AD92" s="34"/>
+      <c r="AD92" s="35"/>
       <c r="AE92" s="12" t="s">
         <v>140</v>
       </c>
@@ -7943,7 +8313,7 @@
       <c r="AI92" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="AJ92" s="34"/>
+      <c r="AJ92" s="35"/>
       <c r="AK92" s="12" t="s">
         <v>140</v>
       </c>
@@ -7953,7 +8323,7 @@
       <c r="AM92" s="16"/>
       <c r="AO92" s="28"/>
     </row>
-    <row r="93" spans="1:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>275</v>
       </c>
@@ -7963,10 +8333,10 @@
       <c r="C93" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E93" s="35" t="s">
+      <c r="E93" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F93" s="36"/>
+      <c r="F93" s="37"/>
       <c r="H93" s="28" t="s">
         <v>361</v>
       </c>
@@ -7976,10 +8346,10 @@
       <c r="K93" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="L93" s="45" t="s">
+      <c r="L93" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="M93" s="41"/>
+      <c r="M93" s="42"/>
       <c r="N93" s="2" t="s">
         <v>55</v>
       </c>
@@ -7990,10 +8360,10 @@
       <c r="Q93" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="R93" s="45" t="s">
+      <c r="R93" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="S93" s="41"/>
+      <c r="S93" s="42"/>
       <c r="T93" s="2" t="s">
         <v>55</v>
       </c>
@@ -8004,10 +8374,10 @@
       <c r="W93" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="X93" s="45" t="s">
+      <c r="X93" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="Y93" s="41"/>
+      <c r="Y93" s="42"/>
       <c r="Z93" s="2" t="s">
         <v>55</v>
       </c>
@@ -8018,10 +8388,10 @@
       <c r="AC93" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="AD93" s="45" t="s">
+      <c r="AD93" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AE93" s="41"/>
+      <c r="AE93" s="42"/>
       <c r="AF93" s="2" t="s">
         <v>55</v>
       </c>
@@ -8032,10 +8402,10 @@
       <c r="AI93" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="AJ93" s="45" t="s">
+      <c r="AJ93" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AK93" s="41"/>
+      <c r="AK93" s="42"/>
       <c r="AL93" s="2" t="s">
         <v>55</v>
       </c>
@@ -8046,15 +8416,28 @@
       <c r="AO93" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="AP93" s="45" t="s">
+      <c r="AP93" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AQ93" s="41"/>
+      <c r="AQ93" s="42"/>
       <c r="AR93" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT93" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU93" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV93" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW93" s="42"/>
+      <c r="AX93" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
         <v>275</v>
       </c>
@@ -8064,7 +8447,7 @@
       <c r="C94" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="E94" s="38" t="s">
         <v>56</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -8079,7 +8462,7 @@
       <c r="K94" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="L94" s="37" t="s">
+      <c r="L94" s="38" t="s">
         <v>56</v>
       </c>
       <c r="M94" s="1" t="s">
@@ -8095,7 +8478,7 @@
       <c r="Q94" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="R94" s="37" t="s">
+      <c r="R94" s="38" t="s">
         <v>56</v>
       </c>
       <c r="S94" s="1" t="s">
@@ -8111,7 +8494,7 @@
       <c r="W94" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="X94" s="37" t="s">
+      <c r="X94" s="38" t="s">
         <v>56</v>
       </c>
       <c r="Y94" s="1" t="s">
@@ -8125,7 +8508,7 @@
       <c r="AI94" s="28"/>
       <c r="AO94" s="28"/>
     </row>
-    <row r="95" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
         <v>275</v>
       </c>
@@ -8135,7 +8518,7 @@
       <c r="C95" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E95" s="38"/>
+      <c r="E95" s="39"/>
       <c r="F95" s="1" t="s">
         <v>59</v>
       </c>
@@ -8148,7 +8531,7 @@
       <c r="K95" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="L95" s="38"/>
+      <c r="L95" s="39"/>
       <c r="M95" s="1" t="s">
         <v>59</v>
       </c>
@@ -8160,7 +8543,7 @@
       <c r="Q95" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="R95" s="38"/>
+      <c r="R95" s="39"/>
       <c r="S95" s="1" t="s">
         <v>59</v>
       </c>
@@ -8172,7 +8555,7 @@
       <c r="W95" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="X95" s="38"/>
+      <c r="X95" s="39"/>
       <c r="Y95" s="1" t="s">
         <v>59</v>
       </c>
@@ -8182,7 +8565,7 @@
       <c r="AI95" s="28"/>
       <c r="AO95" s="28"/>
     </row>
-    <row r="96" spans="1:44" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
         <v>275</v>
       </c>
@@ -8192,7 +8575,7 @@
       <c r="C96" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E96" s="38"/>
+      <c r="E96" s="39"/>
       <c r="F96" s="1" t="s">
         <v>60</v>
       </c>
@@ -8205,7 +8588,7 @@
       <c r="K96" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="L96" s="38"/>
+      <c r="L96" s="39"/>
       <c r="M96" s="15" t="s">
         <v>60</v>
       </c>
@@ -8217,7 +8600,7 @@
       <c r="Q96" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="R96" s="38"/>
+      <c r="R96" s="39"/>
       <c r="S96" s="1" t="s">
         <v>60</v>
       </c>
@@ -8229,7 +8612,7 @@
       <c r="W96" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="X96" s="38"/>
+      <c r="X96" s="39"/>
       <c r="Y96" s="1" t="s">
         <v>60</v>
       </c>
@@ -8239,7 +8622,7 @@
       <c r="AI96" s="28"/>
       <c r="AO96" s="28"/>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
         <v>275</v>
       </c>
@@ -8249,7 +8632,7 @@
       <c r="C97" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E97" s="38"/>
+      <c r="E97" s="39"/>
       <c r="F97" s="1" t="s">
         <v>61</v>
       </c>
@@ -8262,7 +8645,7 @@
       <c r="K97" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="L97" s="38"/>
+      <c r="L97" s="39"/>
       <c r="M97" s="15" t="s">
         <v>61</v>
       </c>
@@ -8274,7 +8657,7 @@
       <c r="Q97" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="R97" s="38"/>
+      <c r="R97" s="39"/>
       <c r="S97" s="1" t="s">
         <v>61</v>
       </c>
@@ -8286,7 +8669,7 @@
       <c r="W97" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="X97" s="38"/>
+      <c r="X97" s="39"/>
       <c r="Y97" s="1" t="s">
         <v>61</v>
       </c>
@@ -8296,7 +8679,7 @@
       <c r="AI97" s="28"/>
       <c r="AO97" s="28"/>
     </row>
-    <row r="98" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>275</v>
       </c>
@@ -8306,7 +8689,7 @@
       <c r="C98" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E98" s="38"/>
+      <c r="E98" s="39"/>
       <c r="F98" s="1" t="s">
         <v>62</v>
       </c>
@@ -8319,7 +8702,7 @@
       <c r="K98" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="L98" s="38"/>
+      <c r="L98" s="39"/>
       <c r="M98" s="1" t="s">
         <v>62</v>
       </c>
@@ -8331,7 +8714,7 @@
       <c r="Q98" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="R98" s="38"/>
+      <c r="R98" s="39"/>
       <c r="S98" s="1" t="s">
         <v>62</v>
       </c>
@@ -8343,7 +8726,7 @@
       <c r="W98" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="X98" s="38"/>
+      <c r="X98" s="39"/>
       <c r="Y98" s="1" t="s">
         <v>62</v>
       </c>
@@ -8353,7 +8736,7 @@
       <c r="AI98" s="28"/>
       <c r="AO98" s="28"/>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>275</v>
       </c>
@@ -8363,7 +8746,7 @@
       <c r="C99" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E99" s="39"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="1" t="s">
         <v>63</v>
       </c>
@@ -8376,7 +8759,7 @@
       <c r="K99" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="L99" s="39"/>
+      <c r="L99" s="40"/>
       <c r="M99" s="1" t="s">
         <v>63</v>
       </c>
@@ -8388,7 +8771,7 @@
       <c r="Q99" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="R99" s="39"/>
+      <c r="R99" s="40"/>
       <c r="S99" s="1" t="s">
         <v>63</v>
       </c>
@@ -8400,7 +8783,7 @@
       <c r="W99" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="X99" s="39"/>
+      <c r="X99" s="40"/>
       <c r="Y99" s="1" t="s">
         <v>63</v>
       </c>
@@ -8410,7 +8793,7 @@
       <c r="AI99" s="28"/>
       <c r="AO99" s="28"/>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>275</v>
       </c>
@@ -8420,10 +8803,10 @@
       <c r="C100" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E100" s="40" t="s">
+      <c r="E100" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F100" s="41"/>
+      <c r="F100" s="42"/>
       <c r="H100" s="29" t="s">
         <v>316</v>
       </c>
@@ -8433,10 +8816,10 @@
       <c r="K100" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="L100" s="40" t="s">
+      <c r="L100" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="M100" s="41"/>
+      <c r="M100" s="42"/>
       <c r="N100" s="9">
         <v>42336</v>
       </c>
@@ -8447,10 +8830,10 @@
       <c r="Q100" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="R100" s="40" t="s">
+      <c r="R100" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="S100" s="41"/>
+      <c r="S100" s="42"/>
       <c r="T100" s="9">
         <v>42336</v>
       </c>
@@ -8461,10 +8844,10 @@
       <c r="W100" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="X100" s="40" t="s">
+      <c r="X100" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Y100" s="41"/>
+      <c r="Y100" s="42"/>
       <c r="Z100" s="9">
         <v>42336</v>
       </c>
@@ -8473,7 +8856,7 @@
       <c r="AI100" s="29"/>
       <c r="AO100" s="29"/>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
         <v>275</v>
       </c>
@@ -8483,7 +8866,7 @@
       <c r="C101" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E101" s="32" t="s">
+      <c r="E101" s="33" t="s">
         <v>145</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -8503,7 +8886,7 @@
       <c r="AO101" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="AP101" s="32" t="s">
+      <c r="AP101" s="33" t="s">
         <v>145</v>
       </c>
       <c r="AQ101" s="1" t="s">
@@ -8512,8 +8895,23 @@
       <c r="AR101" s="2">
         <v>13561</v>
       </c>
-    </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT101" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU101" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV101" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX101" s="2">
+        <v>13561</v>
+      </c>
+    </row>
+    <row r="102" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>275</v>
       </c>
@@ -8523,7 +8921,7 @@
       <c r="C102" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E102" s="33"/>
+      <c r="E102" s="34"/>
       <c r="F102" s="1" t="s">
         <v>147</v>
       </c>
@@ -8541,15 +8939,28 @@
       <c r="AO102" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="AP102" s="33"/>
+      <c r="AP102" s="34"/>
       <c r="AQ102" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AR102" s="2">
         <v>22284</v>
       </c>
-    </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT102" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU102" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV102" s="34"/>
+      <c r="AW102" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX102" s="2">
+        <v>22284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
         <v>275</v>
       </c>
@@ -8559,7 +8970,7 @@
       <c r="C103" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E103" s="33"/>
+      <c r="E103" s="34"/>
       <c r="F103" s="1" t="s">
         <v>148</v>
       </c>
@@ -8577,13 +8988,24 @@
       <c r="AO103" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="AP103" s="33"/>
+      <c r="AP103" s="34"/>
       <c r="AQ103" s="1" t="s">
         <v>148</v>
       </c>
       <c r="AR103" s="2"/>
-    </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT103" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU103" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV103" s="34"/>
+      <c r="AW103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX103" s="2"/>
+    </row>
+    <row r="104" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
         <v>275</v>
       </c>
@@ -8593,7 +9015,7 @@
       <c r="C104" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E104" s="33"/>
+      <c r="E104" s="34"/>
       <c r="F104" s="1" t="s">
         <v>149</v>
       </c>
@@ -8611,13 +9033,24 @@
       <c r="AO104" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="AP104" s="33"/>
+      <c r="AP104" s="34"/>
       <c r="AQ104" s="1" t="s">
         <v>149</v>
       </c>
       <c r="AR104" s="2"/>
-    </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT104" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU104" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="AV104" s="34"/>
+      <c r="AW104" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX104" s="2"/>
+    </row>
+    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
         <v>275</v>
       </c>
@@ -8627,7 +9060,7 @@
       <c r="C105" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E105" s="33"/>
+      <c r="E105" s="34"/>
       <c r="F105" s="1" t="s">
         <v>150</v>
       </c>
@@ -8645,13 +9078,24 @@
       <c r="AO105" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="AP105" s="33"/>
+      <c r="AP105" s="34"/>
       <c r="AQ105" s="1" t="s">
         <v>150</v>
       </c>
       <c r="AR105" s="2"/>
-    </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT105" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU105" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="AV105" s="34"/>
+      <c r="AW105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX105" s="2"/>
+    </row>
+    <row r="106" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>275</v>
       </c>
@@ -8661,7 +9105,7 @@
       <c r="C106" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E106" s="33"/>
+      <c r="E106" s="34"/>
       <c r="F106" s="1" t="s">
         <v>151</v>
       </c>
@@ -8679,15 +9123,28 @@
       <c r="AO106" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="AP106" s="33"/>
+      <c r="AP106" s="34"/>
       <c r="AQ106" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AR106" s="2">
         <v>35845</v>
       </c>
-    </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT106" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU106" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AV106" s="34"/>
+      <c r="AW106" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX106" s="2">
+        <v>35845</v>
+      </c>
+    </row>
+    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
         <v>275</v>
       </c>
@@ -8697,7 +9154,7 @@
       <c r="C107" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E107" s="33"/>
+      <c r="E107" s="34"/>
       <c r="F107" s="1" t="s">
         <v>132</v>
       </c>
@@ -8715,15 +9172,28 @@
       <c r="AO107" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="AP107" s="33"/>
+      <c r="AP107" s="34"/>
       <c r="AQ107" s="1" t="s">
         <v>132</v>
       </c>
       <c r="AR107" s="2">
         <v>7050</v>
       </c>
-    </row>
-    <row r="108" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT107" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU107" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AV107" s="34"/>
+      <c r="AW107" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX107" s="2">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="108" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
         <v>275</v>
       </c>
@@ -8733,7 +9203,7 @@
       <c r="C108" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E108" s="33"/>
+      <c r="E108" s="34"/>
       <c r="F108" s="1" t="s">
         <v>152</v>
       </c>
@@ -8751,15 +9221,28 @@
       <c r="AO108" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="AP108" s="33"/>
+      <c r="AP108" s="34"/>
       <c r="AQ108" s="1" t="s">
         <v>152</v>
       </c>
       <c r="AR108" s="2">
         <v>2100</v>
       </c>
-    </row>
-    <row r="109" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT108" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU108" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AV108" s="34"/>
+      <c r="AW108" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX108" s="2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
         <v>275</v>
       </c>
@@ -8769,7 +9252,7 @@
       <c r="C109" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E109" s="33"/>
+      <c r="E109" s="34"/>
       <c r="F109" s="1" t="s">
         <v>153</v>
       </c>
@@ -8787,13 +9270,24 @@
       <c r="AO109" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="AP109" s="33"/>
+      <c r="AP109" s="34"/>
       <c r="AQ109" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AR109" s="2"/>
-    </row>
-    <row r="110" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT109" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU109" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AV109" s="34"/>
+      <c r="AW109" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX109" s="2"/>
+    </row>
+    <row r="110" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
         <v>275</v>
       </c>
@@ -8803,7 +9297,7 @@
       <c r="C110" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E110" s="33"/>
+      <c r="E110" s="34"/>
       <c r="F110" s="1" t="s">
         <v>154</v>
       </c>
@@ -8821,13 +9315,24 @@
       <c r="AO110" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="AP110" s="33"/>
+      <c r="AP110" s="34"/>
       <c r="AQ110" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AR110" s="2"/>
-    </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT110" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU110" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV110" s="34"/>
+      <c r="AW110" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX110" s="2"/>
+    </row>
+    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
         <v>275</v>
       </c>
@@ -8837,7 +9342,7 @@
       <c r="C111" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E111" s="34"/>
+      <c r="E111" s="35"/>
       <c r="F111" s="1" t="s">
         <v>145</v>
       </c>
@@ -8855,15 +9360,28 @@
       <c r="AO111" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="AP111" s="34"/>
+      <c r="AP111" s="35"/>
       <c r="AQ111" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AR111" s="6">
         <v>44995</v>
       </c>
-    </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT111" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU111" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV111" s="35"/>
+      <c r="AW111" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX111" s="6">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
         <v>275</v>
       </c>
@@ -8873,7 +9391,7 @@
       <c r="C112" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E112" s="32" t="s">
+      <c r="E112" s="33" t="s">
         <v>155</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -8893,15 +9411,28 @@
       <c r="AO112" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="AP112" s="32" t="s">
+      <c r="AP112" s="33" t="s">
         <v>155</v>
       </c>
       <c r="AQ112" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AR112" s="6"/>
-    </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AT112" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU112" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AV112" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW112" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX112" s="6"/>
+    </row>
+    <row r="113" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
         <v>275</v>
       </c>
@@ -8911,7 +9442,7 @@
       <c r="C113" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E113" s="33"/>
+      <c r="E113" s="34"/>
       <c r="F113" s="1" t="s">
         <v>157</v>
       </c>
@@ -8929,13 +9460,24 @@
       <c r="AO113" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="AP113" s="33"/>
+      <c r="AP113" s="34"/>
       <c r="AQ113" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AR113" s="6"/>
-    </row>
-    <row r="114" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="AT113" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU113" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="AV113" s="34"/>
+      <c r="AW113" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX113" s="6"/>
+    </row>
+    <row r="114" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
         <v>275</v>
       </c>
@@ -8945,7 +9487,7 @@
       <c r="C114" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E114" s="33"/>
+      <c r="E114" s="34"/>
       <c r="F114" s="1" t="s">
         <v>158</v>
       </c>
@@ -8963,13 +9505,24 @@
       <c r="AO114" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="AP114" s="33"/>
+      <c r="AP114" s="34"/>
       <c r="AQ114" s="1" t="s">
         <v>158</v>
       </c>
       <c r="AR114" s="6"/>
-    </row>
-    <row r="115" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AT114" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU114" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AV114" s="34"/>
+      <c r="AW114" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX114" s="6"/>
+    </row>
+    <row r="115" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
         <v>275</v>
       </c>
@@ -8979,7 +9532,7 @@
       <c r="C115" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E115" s="34"/>
+      <c r="E115" s="35"/>
       <c r="F115" s="1" t="s">
         <v>159</v>
       </c>
@@ -8997,16 +9550,35 @@
       <c r="AO115" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="AP115" s="34"/>
+      <c r="AP115" s="35"/>
       <c r="AQ115" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AR115" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AT115" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU115" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV115" s="35"/>
+      <c r="AW115" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX115" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="63">
+    <mergeCell ref="AV112:AV115"/>
+    <mergeCell ref="AV3:AV15"/>
+    <mergeCell ref="AV20:AV23"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AV93:AW93"/>
+    <mergeCell ref="AV101:AV111"/>
     <mergeCell ref="AP112:AP115"/>
     <mergeCell ref="AP93:AQ93"/>
     <mergeCell ref="AP1:AR1"/>
@@ -9035,6 +9607,7 @@
     <mergeCell ref="X24:X56"/>
     <mergeCell ref="X93:Y93"/>
     <mergeCell ref="X94:X99"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="R3:R19"/>
@@ -21662,7 +22235,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>374</v>
       </c>
@@ -22333,7 +22906,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>374</v>
       </c>
